--- a/script_master_data/DED-DEVOPS_Adopcion IA_v2a.xlsx
+++ b/script_master_data/DED-DEVOPS_Adopcion IA_v2a.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="1691" documentId="13_ncr:1_{DFE0A30C-CFB8-48A3-9143-60D8C45831E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91BC6201-BC17-4457-9CE0-8DB2D7746B3C}"/>
+  <xr:revisionPtr revIDLastSave="1694" documentId="13_ncr:1_{DFE0A30C-CFB8-48A3-9143-60D8C45831E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4652EE4C-3FC9-44F4-80A0-63992C6B7675}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AdopcionIA" sheetId="1" r:id="rId1"/>
@@ -31,8 +31,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1483,7 +1481,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2915,6 +2913,9 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3010,9 +3011,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3522,7 +3520,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3584,7 +3582,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3730,7 +3728,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3907,7 +3905,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4057,7 +4055,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="776388104"/>
@@ -4139,7 +4137,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4171,7 +4169,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="776385544"/>
@@ -4236,7 +4234,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4268,7 +4266,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="114118151"/>
@@ -4328,7 +4326,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4358,7 +4356,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4434,7 +4432,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4485,7 +4483,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4633,7 +4631,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="283272200"/>
@@ -4692,7 +4690,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="283270152"/>
@@ -4733,7 +4731,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4809,7 +4807,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4823,17 +4821,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>{"No aplica Prompt"}</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>No aplica Prompt</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -4871,7 +4858,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4961,6 +4948,27 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>{"No aplica Prompt"}</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>No aplica Prompt</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-CA46-4DB4-A635-9D635E341A25}"/>
             </c:ext>
@@ -4969,17 +4977,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>{"Uso IA"}</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Uso IA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="70AD47"/>
@@ -5017,7 +5014,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -5107,6 +5104,27 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>{"Uso IA"}</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Uso IA</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-CA46-4DB4-A635-9D635E341A25}"/>
             </c:ext>
@@ -5115,17 +5133,6 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>{"No uso IA"}</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>No uso IA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="FFD966"/>
@@ -5163,7 +5170,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -5224,7 +5231,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!J14:J20</c:f>
+              <c:f>Reporte!$J$14:$J$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5253,6 +5260,27 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>{"No uso IA"}</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>No uso IA</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-CA46-4DB4-A635-9D635E341A25}"/>
             </c:ext>
@@ -5277,17 +5305,6 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>{"Total de tareas"}</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total de tareas</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -5329,7 +5346,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!F14:F20</c:f>
+              <c:f>Reporte!$F$14:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5359,6 +5376,27 @@
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>{"Total de tareas"}</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Total de tareas</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-AAFA-4231-A5C1-836DA4DA0000}"/>
             </c:ext>
@@ -5383,17 +5421,6 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>{"% Uso IA"}</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>% Uso IA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -5434,7 +5461,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -5525,6 +5552,27 @@
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>{"% Uso IA"}</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>% Uso IA</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-CA46-4DB4-A635-9D635E341A25}"/>
             </c:ext>
@@ -5584,7 +5632,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1838961159"/>
@@ -5643,7 +5691,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1400368647"/>
@@ -5685,7 +5733,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1400858119"/>
@@ -5745,7 +5793,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -5784,7 +5832,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5814,7 +5862,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5898,7 +5946,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5952,7 +6000,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -6051,7 +6099,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -6083,7 +6131,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!F8</c:f>
+              <c:f>Reporte!$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -6150,7 +6198,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -6263,7 +6311,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="684009991"/>
@@ -6315,7 +6363,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6345,7 +6393,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6421,7 +6469,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6857,7 +6905,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -7007,7 +7055,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -7157,7 +7205,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -7216,7 +7264,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -7258,7 +7306,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2040453639"/>
@@ -7318,7 +7366,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7348,7 +7396,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7424,7 +7472,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7881,7 +7929,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -8046,7 +8094,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -8196,7 +8244,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1171074056"/>
@@ -8255,7 +8303,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1171072008"/>
@@ -8297,7 +8345,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2097866760"/>
@@ -8357,7 +8405,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8387,7 +8435,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8463,7 +8511,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8899,7 +8947,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -9049,7 +9097,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1171074056"/>
@@ -9108,7 +9156,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1171072008"/>
@@ -9150,7 +9198,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2097866760"/>
@@ -9210,7 +9258,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9240,7 +9288,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9316,7 +9364,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9769,7 +9817,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -9935,7 +9983,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -10085,7 +10133,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -10144,7 +10192,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -10186,7 +10234,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2040453639"/>
@@ -10246,7 +10294,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10276,7 +10324,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10352,7 +10400,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10788,7 +10836,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -10938,7 +10986,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -11088,7 +11136,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -11147,7 +11195,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -11189,7 +11237,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2040453639"/>
@@ -11249,7 +11297,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11279,7 +11327,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11355,7 +11403,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11808,7 +11856,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -11974,7 +12022,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -12124,7 +12172,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -12183,7 +12231,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -12225,7 +12273,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2040453639"/>
@@ -12285,7 +12333,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -12315,7 +12363,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12391,7 +12439,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12827,7 +12875,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -12977,7 +13025,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -13127,7 +13175,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -13186,7 +13234,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -13228,7 +13276,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2040453639"/>
@@ -13288,7 +13336,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -13318,7 +13366,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13394,7 +13442,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -13431,7 +13479,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C51:C57</c:f>
+              <c:f>Reporte!$C$51:$C$57</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -13520,7 +13568,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C51:C57</c:f>
+              <c:f>Reporte!$C$51:$C$57</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -13609,7 +13657,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C51:C57</c:f>
+              <c:f>Reporte!$C$51:$C$57</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -13698,7 +13746,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C51:C57</c:f>
+              <c:f>Reporte!$C$51:$C$57</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -13831,7 +13879,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -13863,7 +13911,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C51:C57</c:f>
+              <c:f>Reporte!$C$51:$C$57</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -13981,7 +14029,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -14013,7 +14061,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C51:C57</c:f>
+              <c:f>Reporte!$C$51:$C$57</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -14131,7 +14179,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -14190,7 +14238,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -14232,7 +14280,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2069212168"/>
@@ -14292,7 +14340,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -14322,7 +14370,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -21635,28 +21683,28 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6:F10"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="1" customWidth="1"/>
-    <col min="7" max="11" width="9.140625" style="1" customWidth="1"/>
-    <col min="12" max="41" width="9.140625" style="1"/>
-    <col min="42" max="42" width="94.42578125" style="126" customWidth="1"/>
-    <col min="43" max="43" width="29.140625" style="1" customWidth="1"/>
-    <col min="44" max="44" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="2.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.7265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.54296875" style="1" customWidth="1"/>
+    <col min="7" max="11" width="9.1796875" style="1" customWidth="1"/>
+    <col min="12" max="41" width="9.1796875" style="1"/>
+    <col min="42" max="42" width="94.453125" style="126" customWidth="1"/>
+    <col min="43" max="43" width="29.1796875" style="1" customWidth="1"/>
+    <col min="44" max="44" width="14.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:44" ht="12.75" customHeight="1">
+    <row r="1" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J1" s="1">
         <f>SUM(J6:J155)</f>
         <v>1</v>
@@ -21690,15 +21738,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:44" ht="18.75">
+    <row r="2" spans="2:44" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:44" ht="15">
+    <row r="3" spans="2:44" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B3" s="81"/>
     </row>
-    <row r="4" spans="2:44" s="2" customFormat="1" ht="15.75">
+    <row r="4" spans="2:44" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="G4" s="3"/>
       <c r="H4" s="4" t="s">
         <v>1</v>
@@ -21750,7 +21798,7 @@
       <c r="AO4" s="6"/>
       <c r="AP4" s="127"/>
     </row>
-    <row r="5" spans="2:44" ht="40.5">
+    <row r="5" spans="2:44" ht="39" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -21881,7 +21929,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:44" ht="40.5">
+    <row r="6" spans="2:44" ht="39" x14ac:dyDescent="0.3">
       <c r="B6" s="147" t="s">
         <v>21</v>
       </c>
@@ -21966,7 +22014,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="2:44" ht="13.5">
+    <row r="7" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B7" s="147" t="s">
         <v>21</v>
       </c>
@@ -22043,15 +22091,15 @@
         <v>32</v>
       </c>
       <c r="AQ7" s="28" t="str">
-        <f t="shared" ref="AQ7:AQ70" si="0">IF(OR(G7="S",L7="S",Q7="S",V7="S",AA7="S",AF7="S",AK7="S"),"S","N")</f>
+        <f t="shared" ref="AQ7:AQ68" si="0">IF(OR(G7="S",L7="S",Q7="S",V7="S",AA7="S",AF7="S",AK7="S"),"S","N")</f>
         <v>S</v>
       </c>
       <c r="AR7" s="28" t="str">
-        <f t="shared" ref="AR7:AR70" si="1">IF(OR(H7="S",M7="S",R7="S",W7="S",AB7="S",AG7="S",AL7="S"),"S","N")</f>
+        <f t="shared" ref="AR7:AR68" si="1">IF(OR(H7="S",M7="S",R7="S",W7="S",AB7="S",AG7="S",AL7="S"),"S","N")</f>
         <v>S</v>
       </c>
     </row>
-    <row r="8" spans="2:44" ht="27">
+    <row r="8" spans="2:44" ht="26" x14ac:dyDescent="0.3">
       <c r="B8" s="147" t="s">
         <v>21</v>
       </c>
@@ -22130,7 +22178,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="9" spans="2:44" ht="67.5">
+    <row r="9" spans="2:44" ht="65" x14ac:dyDescent="0.3">
       <c r="B9" s="147" t="s">
         <v>21</v>
       </c>
@@ -22223,7 +22271,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="10" spans="2:44" ht="27">
+    <row r="10" spans="2:44" ht="26" x14ac:dyDescent="0.3">
       <c r="B10" s="147" t="s">
         <v>21</v>
       </c>
@@ -22310,7 +22358,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="11" spans="2:44" ht="40.5">
+    <row r="11" spans="2:44" ht="39" x14ac:dyDescent="0.3">
       <c r="B11" s="147" t="s">
         <v>21</v>
       </c>
@@ -22397,7 +22445,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="12" spans="2:44" ht="40.5">
+    <row r="12" spans="2:44" ht="39" x14ac:dyDescent="0.3">
       <c r="B12" s="147" t="s">
         <v>21</v>
       </c>
@@ -22484,7 +22532,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="13" spans="2:44" ht="27">
+    <row r="13" spans="2:44" ht="26" x14ac:dyDescent="0.3">
       <c r="B13" s="147" t="s">
         <v>21</v>
       </c>
@@ -22563,7 +22611,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="14" spans="2:44" ht="27">
+    <row r="14" spans="2:44" ht="26" x14ac:dyDescent="0.3">
       <c r="B14" s="147" t="s">
         <v>21</v>
       </c>
@@ -22642,7 +22690,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="15" spans="2:44" ht="27">
+    <row r="15" spans="2:44" ht="26" x14ac:dyDescent="0.3">
       <c r="B15" s="147" t="s">
         <v>21</v>
       </c>
@@ -22721,7 +22769,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="16" spans="2:44" ht="13.5" hidden="1">
+    <row r="16" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B16" s="147" t="s">
         <v>21</v>
       </c>
@@ -22798,7 +22846,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="17" spans="2:44" ht="27" hidden="1">
+    <row r="17" spans="2:44" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B17" s="147" t="s">
         <v>61</v>
       </c>
@@ -22875,7 +22923,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="18" spans="2:44" ht="40.5">
+    <row r="18" spans="2:44" ht="39" x14ac:dyDescent="0.3">
       <c r="B18" s="147" t="s">
         <v>21</v>
       </c>
@@ -22960,7 +23008,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="19" spans="2:44" ht="27" hidden="1">
+    <row r="19" spans="2:44" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B19" s="147" t="s">
         <v>21</v>
       </c>
@@ -23037,7 +23085,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="20" spans="2:44" ht="40.5">
+    <row r="20" spans="2:44" ht="39" x14ac:dyDescent="0.3">
       <c r="B20" s="155" t="s">
         <v>21</v>
       </c>
@@ -23122,7 +23170,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="21" spans="2:44" ht="27" hidden="1">
+    <row r="21" spans="2:44" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B21" s="155" t="s">
         <v>21</v>
       </c>
@@ -23199,7 +23247,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="22" spans="2:44" ht="27" hidden="1">
+    <row r="22" spans="2:44" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B22" s="155" t="s">
         <v>21</v>
       </c>
@@ -23276,7 +23324,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="23" spans="2:44" ht="27">
+    <row r="23" spans="2:44" ht="26" x14ac:dyDescent="0.3">
       <c r="B23" s="155" t="s">
         <v>21</v>
       </c>
@@ -23361,7 +23409,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="24" spans="2:44" ht="13.5">
+    <row r="24" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B24" s="155" t="s">
         <v>21</v>
       </c>
@@ -23446,7 +23494,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="25" spans="2:44" ht="27" hidden="1">
+    <row r="25" spans="2:44" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B25" s="155" t="s">
         <v>21</v>
       </c>
@@ -23523,7 +23571,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="26" spans="2:44" ht="40.5">
+    <row r="26" spans="2:44" ht="39" x14ac:dyDescent="0.3">
       <c r="B26" s="155" t="s">
         <v>21</v>
       </c>
@@ -23608,7 +23656,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="27" spans="2:44" ht="27" hidden="1">
+    <row r="27" spans="2:44" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B27" s="155" t="s">
         <v>21</v>
       </c>
@@ -23681,7 +23729,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="28" spans="2:44" ht="40.5">
+    <row r="28" spans="2:44" ht="39" x14ac:dyDescent="0.3">
       <c r="B28" s="155" t="s">
         <v>21</v>
       </c>
@@ -23766,7 +23814,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="29" spans="2:44" ht="27" hidden="1">
+    <row r="29" spans="2:44" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B29" s="155" t="s">
         <v>21</v>
       </c>
@@ -23841,7 +23889,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="30" spans="2:44" ht="27">
+    <row r="30" spans="2:44" ht="26" x14ac:dyDescent="0.3">
       <c r="B30" s="155" t="s">
         <v>21</v>
       </c>
@@ -23924,7 +23972,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="31" spans="2:44" ht="40.5">
+    <row r="31" spans="2:44" ht="39" x14ac:dyDescent="0.3">
       <c r="B31" s="155" t="s">
         <v>21</v>
       </c>
@@ -24003,7 +24051,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="32" spans="2:44" ht="27" hidden="1">
+    <row r="32" spans="2:44" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B32" s="155" t="s">
         <v>21</v>
       </c>
@@ -24080,7 +24128,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="33" spans="2:44" ht="13.5">
+    <row r="33" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B33" s="155" t="s">
         <v>21</v>
       </c>
@@ -24161,7 +24209,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="34" spans="2:44" ht="27" hidden="1">
+    <row r="34" spans="2:44" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B34" s="155" t="s">
         <v>21</v>
       </c>
@@ -24238,7 +24286,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="35" spans="2:44" ht="27" hidden="1">
+    <row r="35" spans="2:44" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B35" s="155" t="s">
         <v>21</v>
       </c>
@@ -24315,7 +24363,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="36" spans="2:44" ht="13.5" hidden="1">
+    <row r="36" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B36" s="155" t="s">
         <v>21</v>
       </c>
@@ -24392,7 +24440,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="37" spans="2:44" ht="27">
+    <row r="37" spans="2:44" ht="26" x14ac:dyDescent="0.3">
       <c r="B37" s="155" t="s">
         <v>21</v>
       </c>
@@ -24477,7 +24525,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="38" spans="2:44" ht="27">
+    <row r="38" spans="2:44" ht="26" x14ac:dyDescent="0.3">
       <c r="B38" s="155" t="s">
         <v>21</v>
       </c>
@@ -24562,7 +24610,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="39" spans="2:44" ht="27" hidden="1">
+    <row r="39" spans="2:44" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B39" s="155" t="s">
         <v>21</v>
       </c>
@@ -24639,7 +24687,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="40" spans="2:44" ht="27">
+    <row r="40" spans="2:44" ht="26" x14ac:dyDescent="0.3">
       <c r="B40" s="155" t="s">
         <v>21</v>
       </c>
@@ -24724,7 +24772,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="41" spans="2:44" ht="27" hidden="1">
+    <row r="41" spans="2:44" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B41" s="155" t="s">
         <v>21</v>
       </c>
@@ -24801,7 +24849,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="42" spans="2:44" ht="13.5" hidden="1">
+    <row r="42" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B42" s="26" t="s">
         <v>21</v>
       </c>
@@ -24878,7 +24926,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="43" spans="2:44" ht="27" hidden="1">
+    <row r="43" spans="2:44" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B43" s="26" t="s">
         <v>21</v>
       </c>
@@ -24955,7 +25003,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="44" spans="2:44" ht="27" hidden="1">
+    <row r="44" spans="2:44" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B44" s="26" t="s">
         <v>21</v>
       </c>
@@ -25032,7 +25080,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="45" spans="2:44" ht="13.5" hidden="1">
+    <row r="45" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B45" s="26" t="s">
         <v>21</v>
       </c>
@@ -25109,7 +25157,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="46" spans="2:44" ht="27" hidden="1">
+    <row r="46" spans="2:44" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B46" s="26" t="s">
         <v>21</v>
       </c>
@@ -25186,7 +25234,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="47" spans="2:44" ht="27" hidden="1">
+    <row r="47" spans="2:44" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B47" s="26" t="s">
         <v>21</v>
       </c>
@@ -25263,7 +25311,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="48" spans="2:44" ht="27">
+    <row r="48" spans="2:44" ht="26" x14ac:dyDescent="0.3">
       <c r="B48" s="26" t="s">
         <v>21</v>
       </c>
@@ -25348,7 +25396,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="49" spans="2:44" ht="27" hidden="1">
+    <row r="49" spans="2:44" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B49" s="26" t="s">
         <v>21</v>
       </c>
@@ -25425,7 +25473,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="50" spans="2:44" ht="27">
+    <row r="50" spans="2:44" ht="26" x14ac:dyDescent="0.3">
       <c r="B50" s="26" t="s">
         <v>21</v>
       </c>
@@ -25510,7 +25558,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="51" spans="2:44" ht="27" hidden="1">
+    <row r="51" spans="2:44" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B51" s="26" t="s">
         <v>21</v>
       </c>
@@ -25587,7 +25635,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="52" spans="2:44" ht="27" hidden="1">
+    <row r="52" spans="2:44" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B52" s="26" t="s">
         <v>21</v>
       </c>
@@ -25664,7 +25712,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="53" spans="2:44" ht="27">
+    <row r="53" spans="2:44" ht="26" x14ac:dyDescent="0.3">
       <c r="B53" s="26" t="s">
         <v>21</v>
       </c>
@@ -25749,7 +25797,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="54" spans="2:44" ht="27" hidden="1">
+    <row r="54" spans="2:44" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B54" s="26" t="s">
         <v>21</v>
       </c>
@@ -25826,7 +25874,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="55" spans="2:44" ht="27" hidden="1">
+    <row r="55" spans="2:44" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B55" s="26" t="s">
         <v>21</v>
       </c>
@@ -25903,7 +25951,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="56" spans="2:44" ht="27" hidden="1">
+    <row r="56" spans="2:44" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="B56" s="26" t="s">
         <v>21</v>
       </c>
@@ -25980,7 +26028,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="57" spans="2:44" ht="40.5" hidden="1">
+    <row r="57" spans="2:44" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="B57" s="26" t="s">
         <v>21</v>
       </c>
@@ -26057,7 +26105,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="58" spans="2:44" ht="27" hidden="1">
+    <row r="58" spans="2:44" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B58" s="26" t="s">
         <v>21</v>
       </c>
@@ -26134,7 +26182,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="59" spans="2:44" ht="27" hidden="1">
+    <row r="59" spans="2:44" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B59" s="26" t="s">
         <v>21</v>
       </c>
@@ -26197,7 +26245,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="60" spans="2:44" ht="27" hidden="1">
+    <row r="60" spans="2:44" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B60" s="26" t="s">
         <v>21</v>
       </c>
@@ -26274,7 +26322,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="61" spans="2:44" ht="27" hidden="1">
+    <row r="61" spans="2:44" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B61" s="26" t="s">
         <v>21</v>
       </c>
@@ -26349,7 +26397,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="62" spans="2:44" ht="27" hidden="1">
+    <row r="62" spans="2:44" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B62" s="26" t="s">
         <v>21</v>
       </c>
@@ -26410,7 +26458,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="63" spans="2:44" ht="27" hidden="1">
+    <row r="63" spans="2:44" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B63" s="26" t="s">
         <v>21</v>
       </c>
@@ -26471,7 +26519,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="64" spans="2:44" ht="40.5" hidden="1">
+    <row r="64" spans="2:44" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="B64" s="26" t="s">
         <v>21</v>
       </c>
@@ -26532,7 +26580,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="65" spans="2:44" ht="40.5" hidden="1">
+    <row r="65" spans="2:44" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="B65" s="26" t="s">
         <v>21</v>
       </c>
@@ -26593,7 +26641,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="66" spans="2:44" ht="27" hidden="1">
+    <row r="66" spans="2:44" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B66" s="26" t="s">
         <v>21</v>
       </c>
@@ -26652,7 +26700,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="67" spans="2:44" ht="27" hidden="1">
+    <row r="67" spans="2:44" ht="26" hidden="1" x14ac:dyDescent="0.3">
       <c r="B67" s="26" t="s">
         <v>21</v>
       </c>
@@ -26711,7 +26759,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="68" spans="2:44" ht="40.5" hidden="1">
+    <row r="68" spans="2:44" ht="39" hidden="1" x14ac:dyDescent="0.3">
       <c r="B68" s="26" t="s">
         <v>21</v>
       </c>
@@ -26770,7 +26818,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="69" spans="2:44" hidden="1">
+    <row r="69" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B69" s="9"/>
       <c r="C69" s="146"/>
       <c r="D69" s="10"/>
@@ -26815,7 +26863,7 @@
       <c r="AQ69" s="28"/>
       <c r="AR69" s="28"/>
     </row>
-    <row r="70" spans="2:44" hidden="1">
+    <row r="70" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B70" s="9"/>
       <c r="C70" s="146"/>
       <c r="D70" s="10"/>
@@ -26860,7 +26908,7 @@
       <c r="AQ70" s="28"/>
       <c r="AR70" s="28"/>
     </row>
-    <row r="71" spans="2:44" hidden="1">
+    <row r="71" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B71" s="9"/>
       <c r="C71" s="146"/>
       <c r="D71" s="10"/>
@@ -26905,7 +26953,7 @@
       <c r="AQ71" s="28"/>
       <c r="AR71" s="28"/>
     </row>
-    <row r="72" spans="2:44" hidden="1">
+    <row r="72" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B72" s="9"/>
       <c r="C72" s="146"/>
       <c r="D72" s="10"/>
@@ -26950,7 +26998,7 @@
       <c r="AQ72" s="28"/>
       <c r="AR72" s="28"/>
     </row>
-    <row r="73" spans="2:44" hidden="1">
+    <row r="73" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B73" s="9"/>
       <c r="C73" s="146"/>
       <c r="D73" s="10"/>
@@ -26995,7 +27043,7 @@
       <c r="AQ73" s="28"/>
       <c r="AR73" s="28"/>
     </row>
-    <row r="74" spans="2:44" hidden="1">
+    <row r="74" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B74" s="9"/>
       <c r="C74" s="146"/>
       <c r="D74" s="10"/>
@@ -27040,7 +27088,7 @@
       <c r="AQ74" s="28"/>
       <c r="AR74" s="28"/>
     </row>
-    <row r="75" spans="2:44" hidden="1">
+    <row r="75" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B75" s="9"/>
       <c r="C75" s="146"/>
       <c r="D75" s="10"/>
@@ -27085,7 +27133,7 @@
       <c r="AQ75" s="28"/>
       <c r="AR75" s="28"/>
     </row>
-    <row r="76" spans="2:44" hidden="1">
+    <row r="76" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B76" s="9"/>
       <c r="C76" s="146"/>
       <c r="D76" s="10"/>
@@ -27124,7 +27172,7 @@
       <c r="AQ76" s="28"/>
       <c r="AR76" s="28"/>
     </row>
-    <row r="77" spans="2:44" hidden="1">
+    <row r="77" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B77" s="9"/>
       <c r="C77" s="146"/>
       <c r="D77" s="10"/>
@@ -27169,7 +27217,7 @@
       <c r="AQ77" s="28"/>
       <c r="AR77" s="28"/>
     </row>
-    <row r="78" spans="2:44" hidden="1">
+    <row r="78" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B78" s="9"/>
       <c r="C78" s="146"/>
       <c r="D78" s="10"/>
@@ -27214,7 +27262,7 @@
       <c r="AQ78" s="28"/>
       <c r="AR78" s="28"/>
     </row>
-    <row r="79" spans="2:44" hidden="1">
+    <row r="79" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B79" s="9"/>
       <c r="C79" s="146"/>
       <c r="D79" s="10"/>
@@ -27259,7 +27307,7 @@
       <c r="AQ79" s="28"/>
       <c r="AR79" s="28"/>
     </row>
-    <row r="80" spans="2:44" hidden="1">
+    <row r="80" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B80" s="9"/>
       <c r="C80" s="146"/>
       <c r="D80" s="10"/>
@@ -27304,7 +27352,7 @@
       <c r="AQ80" s="28"/>
       <c r="AR80" s="28"/>
     </row>
-    <row r="81" spans="2:44" hidden="1">
+    <row r="81" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B81" s="9"/>
       <c r="C81" s="146"/>
       <c r="D81" s="10"/>
@@ -27349,7 +27397,7 @@
       <c r="AQ81" s="28"/>
       <c r="AR81" s="28"/>
     </row>
-    <row r="82" spans="2:44" hidden="1">
+    <row r="82" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B82" s="9"/>
       <c r="C82" s="146"/>
       <c r="D82" s="10"/>
@@ -27394,7 +27442,7 @@
       <c r="AQ82" s="28"/>
       <c r="AR82" s="28"/>
     </row>
-    <row r="83" spans="2:44" hidden="1">
+    <row r="83" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B83" s="9"/>
       <c r="C83" s="146"/>
       <c r="D83" s="10"/>
@@ -27439,7 +27487,7 @@
       <c r="AQ83" s="28"/>
       <c r="AR83" s="28"/>
     </row>
-    <row r="84" spans="2:44" hidden="1">
+    <row r="84" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B84" s="9"/>
       <c r="C84" s="146"/>
       <c r="D84" s="10"/>
@@ -27484,7 +27532,7 @@
       <c r="AQ84" s="28"/>
       <c r="AR84" s="28"/>
     </row>
-    <row r="85" spans="2:44" hidden="1">
+    <row r="85" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B85" s="9"/>
       <c r="C85" s="146"/>
       <c r="D85" s="10"/>
@@ -27529,7 +27577,7 @@
       <c r="AQ85" s="28"/>
       <c r="AR85" s="28"/>
     </row>
-    <row r="86" spans="2:44" hidden="1">
+    <row r="86" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B86" s="9"/>
       <c r="C86" s="146"/>
       <c r="D86" s="10"/>
@@ -27574,7 +27622,7 @@
       <c r="AQ86" s="28"/>
       <c r="AR86" s="28"/>
     </row>
-    <row r="87" spans="2:44" hidden="1">
+    <row r="87" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B87" s="9"/>
       <c r="C87" s="146"/>
       <c r="D87" s="10"/>
@@ -27619,7 +27667,7 @@
       <c r="AQ87" s="28"/>
       <c r="AR87" s="28"/>
     </row>
-    <row r="88" spans="2:44" hidden="1">
+    <row r="88" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B88" s="9"/>
       <c r="C88" s="146"/>
       <c r="D88" s="10"/>
@@ -27664,7 +27712,7 @@
       <c r="AQ88" s="28"/>
       <c r="AR88" s="28"/>
     </row>
-    <row r="89" spans="2:44" hidden="1">
+    <row r="89" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B89" s="9"/>
       <c r="C89" s="146"/>
       <c r="D89" s="10"/>
@@ -27709,7 +27757,7 @@
       <c r="AQ89" s="28"/>
       <c r="AR89" s="28"/>
     </row>
-    <row r="90" spans="2:44" hidden="1">
+    <row r="90" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B90" s="9"/>
       <c r="C90" s="146"/>
       <c r="D90" s="10"/>
@@ -27754,7 +27802,7 @@
       <c r="AQ90" s="28"/>
       <c r="AR90" s="28"/>
     </row>
-    <row r="91" spans="2:44" hidden="1">
+    <row r="91" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B91" s="9"/>
       <c r="C91" s="146"/>
       <c r="D91" s="10"/>
@@ -27799,7 +27847,7 @@
       <c r="AQ91" s="28"/>
       <c r="AR91" s="28"/>
     </row>
-    <row r="92" spans="2:44" hidden="1">
+    <row r="92" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B92" s="9"/>
       <c r="C92" s="146"/>
       <c r="D92" s="10"/>
@@ -27844,7 +27892,7 @@
       <c r="AQ92" s="28"/>
       <c r="AR92" s="28"/>
     </row>
-    <row r="93" spans="2:44" hidden="1">
+    <row r="93" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B93" s="9"/>
       <c r="C93" s="146"/>
       <c r="D93" s="10"/>
@@ -27889,7 +27937,7 @@
       <c r="AQ93" s="28"/>
       <c r="AR93" s="28"/>
     </row>
-    <row r="94" spans="2:44" hidden="1">
+    <row r="94" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B94" s="9"/>
       <c r="C94" s="146"/>
       <c r="D94" s="10"/>
@@ -27934,7 +27982,7 @@
       <c r="AQ94" s="28"/>
       <c r="AR94" s="28"/>
     </row>
-    <row r="95" spans="2:44" ht="15" hidden="1">
+    <row r="95" spans="2:44" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B95" s="9"/>
       <c r="C95" s="146"/>
       <c r="D95" s="10"/>
@@ -27979,7 +28027,7 @@
       <c r="AQ95" s="28"/>
       <c r="AR95" s="28"/>
     </row>
-    <row r="96" spans="2:44" ht="15" hidden="1">
+    <row r="96" spans="2:44" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B96" s="9"/>
       <c r="C96" s="146"/>
       <c r="D96" s="10"/>
@@ -28024,7 +28072,7 @@
       <c r="AQ96" s="28"/>
       <c r="AR96" s="28"/>
     </row>
-    <row r="97" spans="2:44" hidden="1">
+    <row r="97" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B97" s="9"/>
       <c r="C97" s="146"/>
       <c r="D97" s="10"/>
@@ -28069,7 +28117,7 @@
       <c r="AQ97" s="28"/>
       <c r="AR97" s="28"/>
     </row>
-    <row r="98" spans="2:44" hidden="1">
+    <row r="98" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B98" s="9"/>
       <c r="C98" s="146"/>
       <c r="D98" s="10"/>
@@ -28114,7 +28162,7 @@
       <c r="AQ98" s="28"/>
       <c r="AR98" s="28"/>
     </row>
-    <row r="99" spans="2:44" hidden="1">
+    <row r="99" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B99" s="9"/>
       <c r="C99" s="146"/>
       <c r="D99" s="10"/>
@@ -28159,7 +28207,7 @@
       <c r="AQ99" s="28"/>
       <c r="AR99" s="28"/>
     </row>
-    <row r="100" spans="2:44" hidden="1">
+    <row r="100" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B100" s="9"/>
       <c r="C100" s="146"/>
       <c r="D100" s="10"/>
@@ -28204,7 +28252,7 @@
       <c r="AQ100" s="28"/>
       <c r="AR100" s="28"/>
     </row>
-    <row r="101" spans="2:44" ht="45.75" hidden="1" customHeight="1">
+    <row r="101" spans="2:44" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="9"/>
       <c r="C101" s="146"/>
       <c r="D101" s="10"/>
@@ -28249,7 +28297,7 @@
       <c r="AQ101" s="28"/>
       <c r="AR101" s="28"/>
     </row>
-    <row r="102" spans="2:44" hidden="1">
+    <row r="102" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B102" s="9"/>
       <c r="C102" s="146"/>
       <c r="D102" s="10"/>
@@ -28294,7 +28342,7 @@
       <c r="AQ102" s="28"/>
       <c r="AR102" s="28"/>
     </row>
-    <row r="103" spans="2:44" hidden="1">
+    <row r="103" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B103" s="9"/>
       <c r="C103" s="146"/>
       <c r="D103" s="10"/>
@@ -28339,7 +28387,7 @@
       <c r="AQ103" s="28"/>
       <c r="AR103" s="28"/>
     </row>
-    <row r="104" spans="2:44" hidden="1">
+    <row r="104" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B104" s="9"/>
       <c r="C104" s="146"/>
       <c r="D104" s="10"/>
@@ -28384,7 +28432,7 @@
       <c r="AQ104" s="28"/>
       <c r="AR104" s="28"/>
     </row>
-    <row r="105" spans="2:44" hidden="1">
+    <row r="105" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B105" s="9"/>
       <c r="C105" s="146"/>
       <c r="D105" s="10"/>
@@ -28429,7 +28477,7 @@
       <c r="AQ105" s="28"/>
       <c r="AR105" s="28"/>
     </row>
-    <row r="106" spans="2:44" hidden="1">
+    <row r="106" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B106" s="9"/>
       <c r="C106" s="146"/>
       <c r="D106" s="10"/>
@@ -28474,7 +28522,7 @@
       <c r="AQ106" s="28"/>
       <c r="AR106" s="28"/>
     </row>
-    <row r="107" spans="2:44" hidden="1">
+    <row r="107" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B107" s="9"/>
       <c r="C107" s="146"/>
       <c r="D107" s="10"/>
@@ -28519,7 +28567,7 @@
       <c r="AQ107" s="28"/>
       <c r="AR107" s="28"/>
     </row>
-    <row r="108" spans="2:44" hidden="1">
+    <row r="108" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B108" s="9"/>
       <c r="C108" s="146"/>
       <c r="D108" s="10"/>
@@ -28564,7 +28612,7 @@
       <c r="AQ108" s="28"/>
       <c r="AR108" s="28"/>
     </row>
-    <row r="109" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+    <row r="109" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B109" s="9"/>
       <c r="C109" s="146"/>
       <c r="D109" s="10"/>
@@ -28609,7 +28657,7 @@
       <c r="AQ109" s="28"/>
       <c r="AR109" s="28"/>
     </row>
-    <row r="110" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+    <row r="110" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B110" s="9"/>
       <c r="C110" s="146"/>
       <c r="D110" s="10"/>
@@ -28654,7 +28702,7 @@
       <c r="AQ110" s="28"/>
       <c r="AR110" s="28"/>
     </row>
-    <row r="111" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+    <row r="111" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="9"/>
       <c r="C111" s="146"/>
       <c r="D111" s="10"/>
@@ -28699,7 +28747,7 @@
       <c r="AQ111" s="28"/>
       <c r="AR111" s="28"/>
     </row>
-    <row r="112" spans="2:44" ht="28.5" hidden="1" customHeight="1">
+    <row r="112" spans="2:44" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="9"/>
       <c r="C112" s="146"/>
       <c r="D112" s="10"/>
@@ -28744,7 +28792,7 @@
       <c r="AQ112" s="28"/>
       <c r="AR112" s="28"/>
     </row>
-    <row r="113" spans="2:70" ht="12.75" hidden="1" customHeight="1">
+    <row r="113" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B113" s="9"/>
       <c r="C113" s="146"/>
       <c r="D113" s="10"/>
@@ -28789,7 +28837,7 @@
       <c r="AQ113" s="28"/>
       <c r="AR113" s="28"/>
     </row>
-    <row r="114" spans="2:70" ht="12.75" hidden="1" customHeight="1">
+    <row r="114" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="9"/>
       <c r="C114" s="146"/>
       <c r="D114" s="10"/>
@@ -28834,7 +28882,7 @@
       <c r="AQ114" s="28"/>
       <c r="AR114" s="28"/>
     </row>
-    <row r="115" spans="2:70" ht="12.75" hidden="1" customHeight="1">
+    <row r="115" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B115" s="9"/>
       <c r="C115" s="146"/>
       <c r="D115" s="10"/>
@@ -28879,7 +28927,7 @@
       <c r="AQ115" s="28"/>
       <c r="AR115" s="28"/>
     </row>
-    <row r="116" spans="2:70" ht="12.75" hidden="1" customHeight="1">
+    <row r="116" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B116" s="9"/>
       <c r="C116" s="146"/>
       <c r="D116" s="10"/>
@@ -28924,7 +28972,7 @@
       <c r="AQ116" s="28"/>
       <c r="AR116" s="28"/>
     </row>
-    <row r="117" spans="2:70" ht="12.75" hidden="1" customHeight="1">
+    <row r="117" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B117" s="9"/>
       <c r="C117" s="146"/>
       <c r="D117" s="10"/>
@@ -28969,7 +29017,7 @@
       <c r="AQ117" s="28"/>
       <c r="AR117" s="28"/>
     </row>
-    <row r="118" spans="2:70" ht="12.75" hidden="1" customHeight="1">
+    <row r="118" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="9"/>
       <c r="C118" s="146"/>
       <c r="D118" s="10"/>
@@ -29014,7 +29062,7 @@
       <c r="AQ118" s="28"/>
       <c r="AR118" s="28"/>
     </row>
-    <row r="119" spans="2:70" ht="12.75" hidden="1" customHeight="1">
+    <row r="119" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B119" s="9"/>
       <c r="C119" s="146"/>
       <c r="D119" s="10"/>
@@ -29059,7 +29107,7 @@
       <c r="AQ119" s="28"/>
       <c r="AR119" s="28"/>
     </row>
-    <row r="120" spans="2:70" ht="12.75" hidden="1" customHeight="1">
+    <row r="120" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B120" s="9"/>
       <c r="C120" s="146"/>
       <c r="D120" s="10"/>
@@ -29104,7 +29152,7 @@
       <c r="AQ120" s="28"/>
       <c r="AR120" s="28"/>
     </row>
-    <row r="121" spans="2:70" ht="42.75" hidden="1" customHeight="1">
+    <row r="121" spans="2:70" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B121" s="9"/>
       <c r="C121" s="146"/>
       <c r="D121" s="10"/>
@@ -29149,7 +29197,7 @@
       <c r="AQ121" s="28"/>
       <c r="AR121" s="28"/>
     </row>
-    <row r="122" spans="2:70" ht="12.75" hidden="1" customHeight="1">
+    <row r="122" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B122" s="9"/>
       <c r="C122" s="146"/>
       <c r="D122" s="10"/>
@@ -29194,7 +29242,7 @@
       <c r="AQ122" s="28"/>
       <c r="AR122" s="28"/>
     </row>
-    <row r="123" spans="2:70" ht="12.75" hidden="1" customHeight="1">
+    <row r="123" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="9"/>
       <c r="C123" s="146"/>
       <c r="D123" s="10"/>
@@ -29265,7 +29313,7 @@
       <c r="BQ123" s="105"/>
       <c r="BR123" s="105"/>
     </row>
-    <row r="124" spans="2:70" ht="12.75" hidden="1" customHeight="1">
+    <row r="124" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B124" s="9"/>
       <c r="C124" s="146"/>
       <c r="D124" s="10"/>
@@ -29310,7 +29358,7 @@
       <c r="AQ124" s="28"/>
       <c r="AR124" s="28"/>
     </row>
-    <row r="125" spans="2:70" ht="12.75" hidden="1" customHeight="1">
+    <row r="125" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B125" s="9"/>
       <c r="C125" s="146"/>
       <c r="D125" s="10"/>
@@ -29355,7 +29403,7 @@
       <c r="AQ125" s="28"/>
       <c r="AR125" s="28"/>
     </row>
-    <row r="126" spans="2:70" ht="12.75" hidden="1" customHeight="1">
+    <row r="126" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="9"/>
       <c r="C126" s="146"/>
       <c r="D126" s="10"/>
@@ -29400,7 +29448,7 @@
       <c r="AQ126" s="28"/>
       <c r="AR126" s="28"/>
     </row>
-    <row r="127" spans="2:70" ht="12.75" hidden="1" customHeight="1">
+    <row r="127" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B127" s="9"/>
       <c r="C127" s="146"/>
       <c r="D127" s="10"/>
@@ -29445,7 +29493,7 @@
       <c r="AQ127" s="28"/>
       <c r="AR127" s="28"/>
     </row>
-    <row r="128" spans="2:70" ht="12.75" hidden="1" customHeight="1">
+    <row r="128" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B128" s="9"/>
       <c r="C128" s="146"/>
       <c r="D128" s="10"/>
@@ -29490,7 +29538,7 @@
       <c r="AQ128" s="28"/>
       <c r="AR128" s="28"/>
     </row>
-    <row r="129" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+    <row r="129" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B129" s="9"/>
       <c r="C129" s="146"/>
       <c r="D129" s="10"/>
@@ -29535,7 +29583,7 @@
       <c r="AQ129" s="28"/>
       <c r="AR129" s="28"/>
     </row>
-    <row r="130" spans="2:44" ht="27" hidden="1" customHeight="1">
+    <row r="130" spans="2:44" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B130" s="9"/>
       <c r="C130" s="146"/>
       <c r="D130" s="10"/>
@@ -29580,7 +29628,7 @@
       <c r="AQ130" s="28"/>
       <c r="AR130" s="28"/>
     </row>
-    <row r="131" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+    <row r="131" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B131" s="9"/>
       <c r="C131" s="146"/>
       <c r="D131" s="10"/>
@@ -29625,7 +29673,7 @@
       <c r="AQ131" s="28"/>
       <c r="AR131" s="28"/>
     </row>
-    <row r="132" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+    <row r="132" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B132" s="9"/>
       <c r="C132" s="146"/>
       <c r="D132" s="10"/>
@@ -29670,7 +29718,7 @@
       <c r="AQ132" s="28"/>
       <c r="AR132" s="28"/>
     </row>
-    <row r="133" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+    <row r="133" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B133" s="9"/>
       <c r="C133" s="146"/>
       <c r="D133" s="10"/>
@@ -29715,7 +29763,7 @@
       <c r="AQ133" s="28"/>
       <c r="AR133" s="28"/>
     </row>
-    <row r="134" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+    <row r="134" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B134" s="9"/>
       <c r="C134" s="146"/>
       <c r="D134" s="10"/>
@@ -29760,7 +29808,7 @@
       <c r="AQ134" s="28"/>
       <c r="AR134" s="28"/>
     </row>
-    <row r="135" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+    <row r="135" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B135" s="9"/>
       <c r="C135" s="146"/>
       <c r="D135" s="10"/>
@@ -29805,7 +29853,7 @@
       <c r="AQ135" s="28"/>
       <c r="AR135" s="28"/>
     </row>
-    <row r="136" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+    <row r="136" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B136" s="9"/>
       <c r="C136" s="146"/>
       <c r="D136" s="10"/>
@@ -29850,7 +29898,7 @@
       <c r="AQ136" s="28"/>
       <c r="AR136" s="28"/>
     </row>
-    <row r="137" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+    <row r="137" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B137" s="9"/>
       <c r="C137" s="146"/>
       <c r="D137" s="10"/>
@@ -29895,7 +29943,7 @@
       <c r="AQ137" s="28"/>
       <c r="AR137" s="28"/>
     </row>
-    <row r="138" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+    <row r="138" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B138" s="9"/>
       <c r="C138" s="146"/>
       <c r="D138" s="10"/>
@@ -29940,7 +29988,7 @@
       <c r="AQ138" s="28"/>
       <c r="AR138" s="28"/>
     </row>
-    <row r="139" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+    <row r="139" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B139" s="9"/>
       <c r="C139" s="146"/>
       <c r="D139" s="10"/>
@@ -29985,7 +30033,7 @@
       <c r="AQ139" s="28"/>
       <c r="AR139" s="28"/>
     </row>
-    <row r="140" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+    <row r="140" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="9"/>
       <c r="C140" s="146"/>
       <c r="D140" s="10"/>
@@ -30030,7 +30078,7 @@
       <c r="AQ140" s="28"/>
       <c r="AR140" s="28"/>
     </row>
-    <row r="141" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+    <row r="141" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B141" s="9"/>
       <c r="C141" s="146"/>
       <c r="D141" s="10"/>
@@ -30075,7 +30123,7 @@
       <c r="AQ141" s="28"/>
       <c r="AR141" s="28"/>
     </row>
-    <row r="142" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+    <row r="142" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B142" s="9"/>
       <c r="C142" s="146"/>
       <c r="D142" s="10"/>
@@ -30120,7 +30168,7 @@
       <c r="AQ142" s="28"/>
       <c r="AR142" s="28"/>
     </row>
-    <row r="143" spans="2:44" ht="45.75" hidden="1" customHeight="1">
+    <row r="143" spans="2:44" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B143" s="9"/>
       <c r="C143" s="146"/>
       <c r="D143" s="10"/>
@@ -30165,7 +30213,7 @@
       <c r="AQ143" s="28"/>
       <c r="AR143" s="28"/>
     </row>
-    <row r="144" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+    <row r="144" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B144" s="9"/>
       <c r="C144" s="146"/>
       <c r="D144" s="10"/>
@@ -30210,7 +30258,7 @@
       <c r="AQ144" s="28"/>
       <c r="AR144" s="28"/>
     </row>
-    <row r="145" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+    <row r="145" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B145" s="9"/>
       <c r="C145" s="146"/>
       <c r="D145" s="10"/>
@@ -30255,7 +30303,7 @@
       <c r="AQ145" s="28"/>
       <c r="AR145" s="28"/>
     </row>
-    <row r="146" spans="2:44" ht="48" hidden="1" customHeight="1">
+    <row r="146" spans="2:44" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B146" s="9"/>
       <c r="C146" s="146"/>
       <c r="D146" s="10"/>
@@ -30300,7 +30348,7 @@
       <c r="AQ146" s="28"/>
       <c r="AR146" s="28"/>
     </row>
-    <row r="147" spans="2:44" ht="19.5" hidden="1" customHeight="1">
+    <row r="147" spans="2:44" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B147" s="9"/>
       <c r="C147" s="146"/>
       <c r="D147" s="10"/>
@@ -30345,7 +30393,7 @@
       <c r="AQ147" s="28"/>
       <c r="AR147" s="28"/>
     </row>
-    <row r="148" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+    <row r="148" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B148" s="9"/>
       <c r="C148" s="146"/>
       <c r="D148" s="10"/>
@@ -30390,7 +30438,7 @@
       <c r="AQ148" s="28"/>
       <c r="AR148" s="28"/>
     </row>
-    <row r="149" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+    <row r="149" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B149" s="9"/>
       <c r="C149" s="146"/>
       <c r="D149" s="10"/>
@@ -30435,7 +30483,7 @@
       <c r="AQ149" s="28"/>
       <c r="AR149" s="28"/>
     </row>
-    <row r="150" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+    <row r="150" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B150" s="9"/>
       <c r="C150" s="146"/>
       <c r="D150" s="10"/>
@@ -30480,7 +30528,7 @@
       <c r="AQ150" s="28"/>
       <c r="AR150" s="28"/>
     </row>
-    <row r="151" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+    <row r="151" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B151" s="9"/>
       <c r="C151" s="146"/>
       <c r="D151" s="10"/>
@@ -30525,7 +30573,7 @@
       <c r="AQ151" s="28"/>
       <c r="AR151" s="28"/>
     </row>
-    <row r="152" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+    <row r="152" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B152" s="9"/>
       <c r="C152" s="146"/>
       <c r="D152" s="10"/>
@@ -30570,7 +30618,7 @@
       <c r="AQ152" s="28"/>
       <c r="AR152" s="28"/>
     </row>
-    <row r="153" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+    <row r="153" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B153" s="9"/>
       <c r="C153" s="146"/>
       <c r="D153" s="10"/>
@@ -30615,7 +30663,7 @@
       <c r="AQ153" s="28"/>
       <c r="AR153" s="28"/>
     </row>
-    <row r="154" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+    <row r="154" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="9"/>
       <c r="C154" s="146"/>
       <c r="D154" s="10"/>
@@ -30660,7 +30708,7 @@
       <c r="AQ154" s="28"/>
       <c r="AR154" s="28"/>
     </row>
-    <row r="155" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+    <row r="155" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B155" s="9"/>
       <c r="C155" s="146"/>
       <c r="D155" s="10"/>
@@ -30705,7 +30753,7 @@
       <c r="AQ155" s="28"/>
       <c r="AR155" s="28"/>
     </row>
-    <row r="156" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+    <row r="156" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B156" s="9"/>
       <c r="C156" s="146"/>
       <c r="D156" s="10"/>
@@ -30750,7 +30798,7 @@
       <c r="AQ156" s="28"/>
       <c r="AR156" s="28"/>
     </row>
-    <row r="157" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+    <row r="157" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B157" s="9"/>
       <c r="C157" s="146"/>
       <c r="D157" s="10"/>
@@ -30795,7 +30843,7 @@
       <c r="AQ157" s="28"/>
       <c r="AR157" s="28"/>
     </row>
-    <row r="158" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+    <row r="158" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B158" s="9"/>
       <c r="C158" s="146"/>
       <c r="D158" s="10"/>
@@ -30840,7 +30888,7 @@
       <c r="AQ158" s="28"/>
       <c r="AR158" s="28"/>
     </row>
-    <row r="159" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+    <row r="159" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B159" s="9"/>
       <c r="C159" s="146"/>
       <c r="D159" s="10"/>
@@ -30885,7 +30933,7 @@
       <c r="AQ159" s="28"/>
       <c r="AR159" s="28"/>
     </row>
-    <row r="160" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+    <row r="160" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B160" s="9"/>
       <c r="C160" s="146"/>
       <c r="D160" s="10"/>
@@ -30930,7 +30978,7 @@
       <c r="AQ160" s="28"/>
       <c r="AR160" s="28"/>
     </row>
-    <row r="161" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+    <row r="161" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B161" s="9"/>
       <c r="C161" s="146"/>
       <c r="D161" s="10"/>
@@ -30975,7 +31023,7 @@
       <c r="AQ161" s="28"/>
       <c r="AR161" s="28"/>
     </row>
-    <row r="162" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+    <row r="162" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B162" s="9"/>
       <c r="C162" s="146"/>
       <c r="D162" s="10"/>
@@ -31020,7 +31068,7 @@
       <c r="AQ162" s="28"/>
       <c r="AR162" s="28"/>
     </row>
-    <row r="163" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+    <row r="163" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B163" s="9"/>
       <c r="C163" s="146"/>
       <c r="D163" s="10"/>
@@ -31065,7 +31113,7 @@
       <c r="AQ163" s="28"/>
       <c r="AR163" s="28"/>
     </row>
-    <row r="164" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+    <row r="164" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B164" s="9"/>
       <c r="C164" s="146"/>
       <c r="D164" s="10"/>
@@ -31110,7 +31158,7 @@
       <c r="AQ164" s="28"/>
       <c r="AR164" s="28"/>
     </row>
-    <row r="165" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+    <row r="165" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B165" s="9"/>
       <c r="C165" s="146"/>
       <c r="D165" s="10"/>
@@ -31155,7 +31203,7 @@
       <c r="AQ165" s="28"/>
       <c r="AR165" s="28"/>
     </row>
-    <row r="166" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+    <row r="166" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B166" s="9"/>
       <c r="C166" s="146"/>
       <c r="D166" s="10"/>
@@ -31200,7 +31248,7 @@
       <c r="AQ166" s="28"/>
       <c r="AR166" s="28"/>
     </row>
-    <row r="167" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+    <row r="167" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B167" s="9"/>
       <c r="C167" s="146"/>
       <c r="D167" s="10"/>
@@ -31245,7 +31293,7 @@
       <c r="AQ167" s="28"/>
       <c r="AR167" s="28"/>
     </row>
-    <row r="168" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+    <row r="168" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="9"/>
       <c r="C168" s="146"/>
       <c r="D168" s="10"/>
@@ -31290,7 +31338,7 @@
       <c r="AQ168" s="28"/>
       <c r="AR168" s="28"/>
     </row>
-    <row r="169" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+    <row r="169" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B169" s="9"/>
       <c r="C169" s="146"/>
       <c r="D169" s="10"/>
@@ -31335,7 +31383,7 @@
       <c r="AQ169" s="28"/>
       <c r="AR169" s="28"/>
     </row>
-    <row r="170" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+    <row r="170" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B170" s="9"/>
       <c r="C170" s="146"/>
       <c r="D170" s="10"/>
@@ -31380,7 +31428,7 @@
       <c r="AQ170" s="28"/>
       <c r="AR170" s="28"/>
     </row>
-    <row r="171" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+    <row r="171" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B171" s="9"/>
       <c r="C171" s="146"/>
       <c r="D171" s="10"/>
@@ -31425,7 +31473,7 @@
       <c r="AQ171" s="28"/>
       <c r="AR171" s="28"/>
     </row>
-    <row r="172" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+    <row r="172" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B172" s="9"/>
       <c r="C172" s="146"/>
       <c r="D172" s="10"/>
@@ -31470,7 +31518,7 @@
       <c r="AQ172" s="28"/>
       <c r="AR172" s="28"/>
     </row>
-    <row r="173" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+    <row r="173" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B173" s="9"/>
       <c r="C173" s="146"/>
       <c r="D173" s="10"/>
@@ -31515,7 +31563,7 @@
       <c r="AQ173" s="28"/>
       <c r="AR173" s="28"/>
     </row>
-    <row r="174" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+    <row r="174" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B174" s="9"/>
       <c r="C174" s="146"/>
       <c r="D174" s="10"/>
@@ -31560,7 +31608,7 @@
       <c r="AQ174" s="28"/>
       <c r="AR174" s="28"/>
     </row>
-    <row r="175" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+    <row r="175" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B175" s="9"/>
       <c r="C175" s="146"/>
       <c r="D175" s="10"/>
@@ -31605,7 +31653,7 @@
       <c r="AQ175" s="28"/>
       <c r="AR175" s="28"/>
     </row>
-    <row r="176" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+    <row r="176" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B176" s="9"/>
       <c r="C176" s="146"/>
       <c r="D176" s="10"/>
@@ -31650,7 +31698,7 @@
       <c r="AQ176" s="28"/>
       <c r="AR176" s="28"/>
     </row>
-    <row r="177" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+    <row r="177" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B177" s="9"/>
       <c r="C177" s="146"/>
       <c r="D177" s="10"/>
@@ -31695,7 +31743,7 @@
       <c r="AQ177" s="28"/>
       <c r="AR177" s="28"/>
     </row>
-    <row r="178" spans="2:44" ht="12.75" hidden="1" customHeight="1">
+    <row r="178" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B178" s="9"/>
       <c r="C178" s="146"/>
       <c r="D178" s="10"/>
@@ -31740,75 +31788,75 @@
       <c r="AQ178" s="28"/>
       <c r="AR178" s="28"/>
     </row>
-    <row r="179" spans="2:44" ht="12.75" customHeight="1">
+    <row r="179" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ179" s="28"/>
       <c r="AR179" s="28"/>
     </row>
-    <row r="180" spans="2:44" ht="12.75" customHeight="1">
+    <row r="180" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ180" s="28"/>
       <c r="AR180" s="28"/>
     </row>
-    <row r="181" spans="2:44" ht="12.75" customHeight="1">
+    <row r="181" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ181" s="28"/>
       <c r="AR181" s="28"/>
     </row>
-    <row r="182" spans="2:44" ht="12.75" customHeight="1">
+    <row r="182" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ182" s="28"/>
       <c r="AR182" s="28"/>
     </row>
-    <row r="183" spans="2:44" ht="12.75" customHeight="1">
+    <row r="183" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ183" s="28"/>
       <c r="AR183" s="28"/>
     </row>
-    <row r="184" spans="2:44" ht="12.75" customHeight="1">
+    <row r="184" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ184" s="28"/>
       <c r="AR184" s="28"/>
     </row>
-    <row r="185" spans="2:44" ht="12.75" customHeight="1">
+    <row r="185" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ185" s="28"/>
       <c r="AR185" s="28"/>
     </row>
-    <row r="186" spans="2:44" ht="12.75" customHeight="1">
+    <row r="186" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ186" s="28"/>
       <c r="AR186" s="28"/>
     </row>
-    <row r="187" spans="2:44" ht="12.75" customHeight="1">
+    <row r="187" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ187" s="28"/>
       <c r="AR187" s="28"/>
     </row>
-    <row r="188" spans="2:44" ht="12.75" customHeight="1">
+    <row r="188" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ188" s="28"/>
       <c r="AR188" s="28"/>
     </row>
-    <row r="189" spans="2:44" ht="12.75" customHeight="1">
+    <row r="189" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ189" s="28"/>
       <c r="AR189" s="28"/>
     </row>
-    <row r="190" spans="2:44" ht="12.75" customHeight="1">
+    <row r="190" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ190" s="28"/>
       <c r="AR190" s="28"/>
     </row>
-    <row r="191" spans="2:44" ht="12.75" customHeight="1">
+    <row r="191" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ191" s="28"/>
       <c r="AR191" s="28"/>
     </row>
-    <row r="192" spans="2:44" ht="12.75" customHeight="1">
+    <row r="192" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ192" s="28"/>
       <c r="AR192" s="28"/>
     </row>
-    <row r="193" spans="43:44" ht="12.75" customHeight="1">
+    <row r="193" spans="43:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ193" s="28"/>
       <c r="AR193" s="28"/>
     </row>
-    <row r="194" spans="43:44" ht="12.75" customHeight="1">
+    <row r="194" spans="43:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ194" s="28"/>
       <c r="AR194" s="28"/>
     </row>
-    <row r="195" spans="43:44" ht="12.75" customHeight="1">
+    <row r="195" spans="43:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ195" s="28"/>
       <c r="AR195" s="28"/>
     </row>
-    <row r="196" spans="43:44" ht="12.75" customHeight="1">
+    <row r="196" spans="43:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ196" s="28"/>
       <c r="AR196" s="28"/>
     </row>
@@ -32058,77 +32106,77 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="94" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="94" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="19">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="19">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="19">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="19">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="19">
         <v>10</v>
       </c>
@@ -32146,25 +32194,25 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="12" width="37.28515625" customWidth="1"/>
+    <col min="3" max="12" width="37.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12">
-      <c r="E3" s="201" t="s">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E3" s="202" t="s">
         <v>208</v>
       </c>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
+      <c r="F3" s="202"/>
+      <c r="G3" s="202"/>
     </row>
-    <row r="5" spans="3:12" ht="18.600000000000001">
-      <c r="J5" s="202" t="s">
+    <row r="5" spans="3:12" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J5" s="203" t="s">
         <v>209</v>
       </c>
-      <c r="K5" s="203"/>
+      <c r="K5" s="204"/>
     </row>
-    <row r="6" spans="3:12" ht="18.600000000000001">
+    <row r="6" spans="3:12" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C6" s="30" t="s">
         <v>210</v>
       </c>
@@ -32196,8 +32244,8 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="3:12" ht="60.75">
-      <c r="C7" s="204" t="s">
+    <row r="7" spans="3:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="C7" s="205" t="s">
         <v>220</v>
       </c>
       <c r="D7" s="165" t="s">
@@ -32226,8 +32274,8 @@
       </c>
       <c r="L7" s="168"/>
     </row>
-    <row r="8" spans="3:12" ht="60.75">
-      <c r="C8" s="205"/>
+    <row r="8" spans="3:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="C8" s="206"/>
       <c r="D8" s="165" t="s">
         <v>228</v>
       </c>
@@ -32254,8 +32302,8 @@
       </c>
       <c r="L8" s="33"/>
     </row>
-    <row r="9" spans="3:12" ht="76.5">
-      <c r="C9" s="205"/>
+    <row r="9" spans="3:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="C9" s="206"/>
       <c r="D9" s="165" t="s">
         <v>234</v>
       </c>
@@ -32282,8 +32330,8 @@
       </c>
       <c r="L9" s="169"/>
     </row>
-    <row r="10" spans="3:12" ht="60.75">
-      <c r="C10" s="205"/>
+    <row r="10" spans="3:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="C10" s="206"/>
       <c r="D10" s="165" t="s">
         <v>240</v>
       </c>
@@ -32308,8 +32356,8 @@
       </c>
       <c r="L10" s="19"/>
     </row>
-    <row r="11" spans="3:12" ht="76.5">
-      <c r="C11" s="205"/>
+    <row r="11" spans="3:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="C11" s="206"/>
       <c r="D11" s="170" t="s">
         <v>245</v>
       </c>
@@ -32336,8 +32384,8 @@
       </c>
       <c r="L11" s="145"/>
     </row>
-    <row r="12" spans="3:12" ht="15">
-      <c r="C12" s="205"/>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C12" s="206"/>
       <c r="D12" s="173"/>
       <c r="E12" s="79"/>
       <c r="F12" s="79"/>
@@ -32348,8 +32396,8 @@
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
     </row>
-    <row r="13" spans="3:12" ht="167.25">
-      <c r="C13" s="205"/>
+    <row r="13" spans="3:12" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="C13" s="206"/>
       <c r="D13" s="173" t="s">
         <v>251</v>
       </c>
@@ -32370,8 +32418,8 @@
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
     </row>
-    <row r="14" spans="3:12" ht="91.5">
-      <c r="C14" s="205"/>
+    <row r="14" spans="3:12" ht="87" x14ac:dyDescent="0.35">
+      <c r="C14" s="206"/>
       <c r="D14" s="79" t="s">
         <v>256</v>
       </c>
@@ -32392,8 +32440,8 @@
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
     </row>
-    <row r="15" spans="3:12" ht="15">
-      <c r="C15" s="205"/>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C15" s="206"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
@@ -32404,8 +32452,8 @@
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
     </row>
-    <row r="16" spans="3:12" ht="15">
-      <c r="C16" s="205"/>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C16" s="206"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
@@ -32416,8 +32464,8 @@
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
     </row>
-    <row r="17" spans="3:12" ht="15">
-      <c r="C17" s="205"/>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C17" s="206"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
@@ -32428,8 +32476,8 @@
       <c r="K17" s="19"/>
       <c r="L17" s="19"/>
     </row>
-    <row r="18" spans="3:12" ht="15">
-      <c r="C18" s="205"/>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C18" s="206"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
@@ -32440,8 +32488,8 @@
       <c r="K18" s="19"/>
       <c r="L18" s="19"/>
     </row>
-    <row r="19" spans="3:12" ht="15">
-      <c r="C19" s="205"/>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C19" s="206"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
@@ -32452,7 +32500,7 @@
       <c r="K19" s="19"/>
       <c r="L19" s="19"/>
     </row>
-    <row r="23" spans="3:12">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.35">
       <c r="D23" t="s">
         <v>260</v>
       </c>
@@ -32475,25 +32523,25 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="11" width="34.140625" customWidth="1"/>
+    <col min="2" max="11" width="34.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:11">
-      <c r="D4" s="201" t="s">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="D4" s="202" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="201"/>
-      <c r="F4" s="201"/>
+      <c r="E4" s="202"/>
+      <c r="F4" s="202"/>
     </row>
-    <row r="6" spans="2:11" ht="18.75">
-      <c r="I6" s="202" t="s">
+    <row r="6" spans="2:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="I6" s="203" t="s">
         <v>209</v>
       </c>
-      <c r="J6" s="203"/>
+      <c r="J6" s="204"/>
     </row>
-    <row r="7" spans="2:11" ht="18.75">
+    <row r="7" spans="2:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B7" s="187" t="s">
         <v>210</v>
       </c>
@@ -32525,8 +32573,8 @@
         <v>261</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="106.5">
-      <c r="B8" s="206" t="s">
+    <row r="8" spans="2:11" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="207" t="s">
         <v>262</v>
       </c>
       <c r="C8" s="191" t="s">
@@ -32555,8 +32603,8 @@
         <v>270</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="137.25">
-      <c r="B9" s="207"/>
+    <row r="9" spans="2:11" ht="145" x14ac:dyDescent="0.35">
+      <c r="B9" s="208"/>
       <c r="C9" s="165" t="s">
         <v>271</v>
       </c>
@@ -32585,8 +32633,8 @@
         <v>279</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="91.5">
-      <c r="B10" s="208"/>
+    <row r="10" spans="2:11" ht="87" x14ac:dyDescent="0.35">
+      <c r="B10" s="209"/>
       <c r="C10" s="165" t="s">
         <v>280</v>
       </c>
@@ -32613,12 +32661,12 @@
         <v>286</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C13" s="197" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="30.75">
+    <row r="14" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="C14" s="198" t="s">
         <v>288</v>
       </c>
@@ -32630,7 +32678,7 @@
       </c>
       <c r="F14" s="198"/>
     </row>
-    <row r="15" spans="2:11" ht="30.75">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C15" s="198" t="s">
         <v>291</v>
       </c>
@@ -32642,7 +32690,7 @@
       </c>
       <c r="F15" s="198"/>
     </row>
-    <row r="16" spans="2:11" ht="30.75">
+    <row r="16" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="C16" s="198" t="s">
         <v>294</v>
       </c>
@@ -32654,7 +32702,7 @@
       </c>
       <c r="F16" s="198"/>
     </row>
-    <row r="17" spans="3:6" ht="45.75">
+    <row r="17" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C17" s="199" t="s">
         <v>297</v>
       </c>
@@ -32684,87 +32732,87 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="3.140625" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" customWidth="1"/>
-    <col min="9" max="10" width="13.28515625" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" customWidth="1"/>
-    <col min="15" max="16" width="9.42578125" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.28515625" customWidth="1"/>
-    <col min="20" max="20" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.7109375" customWidth="1"/>
-    <col min="23" max="23" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.28515625" customWidth="1"/>
-    <col min="28" max="28" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.7109375" customWidth="1"/>
-    <col min="31" max="31" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.5703125" customWidth="1"/>
-    <col min="36" max="36" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.7109375" customWidth="1"/>
-    <col min="39" max="39" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.85546875" customWidth="1"/>
-    <col min="44" max="44" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="13.7109375" customWidth="1"/>
-    <col min="47" max="47" width="19.42578125" customWidth="1"/>
-    <col min="48" max="48" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.5703125" customWidth="1"/>
-    <col min="52" max="52" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="13.7109375" customWidth="1"/>
-    <col min="55" max="55" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="13.28515625" customWidth="1"/>
-    <col min="60" max="60" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="13.7109375" customWidth="1"/>
-    <col min="63" max="63" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="10.140625" customWidth="1"/>
-    <col min="68" max="68" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="13.7109375" customWidth="1"/>
-    <col min="71" max="71" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" customWidth="1"/>
+    <col min="2" max="2" width="3.1796875" customWidth="1"/>
+    <col min="3" max="3" width="30.1796875" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1796875" customWidth="1"/>
+    <col min="6" max="6" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.453125" customWidth="1"/>
+    <col min="8" max="8" width="16.81640625" customWidth="1"/>
+    <col min="9" max="10" width="13.26953125" customWidth="1"/>
+    <col min="11" max="11" width="13.81640625" customWidth="1"/>
+    <col min="12" max="12" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.1796875" customWidth="1"/>
+    <col min="14" max="14" width="15.7265625" customWidth="1"/>
+    <col min="15" max="16" width="9.453125" customWidth="1"/>
+    <col min="17" max="17" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.26953125" customWidth="1"/>
+    <col min="20" max="20" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.7265625" customWidth="1"/>
+    <col min="23" max="23" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.26953125" customWidth="1"/>
+    <col min="28" max="28" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.7265625" customWidth="1"/>
+    <col min="31" max="31" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.54296875" customWidth="1"/>
+    <col min="36" max="36" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.7265625" customWidth="1"/>
+    <col min="39" max="39" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.81640625" customWidth="1"/>
+    <col min="44" max="44" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.7265625" customWidth="1"/>
+    <col min="47" max="47" width="19.453125" customWidth="1"/>
+    <col min="48" max="48" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.54296875" customWidth="1"/>
+    <col min="52" max="52" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="13.7265625" customWidth="1"/>
+    <col min="55" max="55" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="13.26953125" customWidth="1"/>
+    <col min="60" max="60" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="13.7265625" customWidth="1"/>
+    <col min="63" max="63" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="10.1796875" customWidth="1"/>
+    <col min="68" max="68" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="13.7265625" customWidth="1"/>
+    <col min="71" max="71" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14"/>
-    <row r="2" spans="2:14" ht="23.25">
+    <row r="1" spans="2:14" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="65" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="2:14"/>
-    <row r="4" spans="2:14">
+    <row r="3" spans="2:14" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C4" s="22" t="s">
         <v>301</v>
       </c>
@@ -32773,10 +32821,10 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C6" s="17"/>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C7" s="17"/>
       <c r="D7" s="20" t="s">
         <v>302</v>
@@ -32795,7 +32843,7 @@
       </c>
       <c r="J7" s="29"/>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C8" s="91" t="s">
         <v>307</v>
       </c>
@@ -32820,7 +32868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="15" customHeight="1">
+    <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D9" s="144">
         <f>D8/$D$4</f>
         <v>0.3968253968253968</v>
@@ -32842,20 +32890,20 @@
         <v>7.9365079365079361E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="18.75">
+    <row r="10" spans="2:14" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C10" s="64" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C11" s="24" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C12" s="24"/>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C13" s="20" t="s">
         <v>310</v>
       </c>
@@ -32893,7 +32941,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C14" s="18" t="s">
         <v>321</v>
       </c>
@@ -32906,7 +32954,7 @@
         <v>37</v>
       </c>
       <c r="F14" s="34">
-        <f>SUM(D14:E14)</f>
+        <f t="shared" ref="F14:F20" si="0">SUM(D14:E14)</f>
         <v>55</v>
       </c>
       <c r="G14" s="19">
@@ -32918,31 +32966,31 @@
         <v>3</v>
       </c>
       <c r="I14" s="34">
-        <f>F14-G14</f>
+        <f t="shared" ref="I14:I20" si="1">F14-G14</f>
         <v>40</v>
       </c>
       <c r="J14" s="34">
-        <f>F14-E14-G14</f>
+        <f t="shared" ref="J14:J20" si="2">F14-E14-G14</f>
         <v>3</v>
       </c>
       <c r="K14" s="140">
-        <f>D14/F14</f>
+        <f t="shared" ref="K14:K20" si="3">D14/F14</f>
         <v>0.32727272727272727</v>
       </c>
       <c r="L14" s="140">
-        <f>G14/F14</f>
+        <f t="shared" ref="L14:L20" si="4">G14/F14</f>
         <v>0.27272727272727271</v>
       </c>
       <c r="M14" s="140">
-        <f>I14/F14</f>
+        <f t="shared" ref="M14:M20" si="5">I14/F14</f>
         <v>0.72727272727272729</v>
       </c>
       <c r="N14" s="140">
-        <f>G14/$G$22</f>
+        <f t="shared" ref="N14:N20" si="6">G14/$G$22</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C15" s="18" t="s">
         <v>3</v>
       </c>
@@ -32955,7 +33003,7 @@
         <v>50</v>
       </c>
       <c r="F15" s="34">
-        <f>SUM(D15:E15)</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="G15" s="19">
@@ -32967,31 +33015,31 @@
         <v>1</v>
       </c>
       <c r="I15" s="34">
-        <f>F15-G15</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="J15" s="34">
-        <f>F15-E15-G15</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K15" s="140">
-        <f>D15/F15</f>
+        <f t="shared" si="3"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="L15" s="140">
-        <f>G15/F15</f>
+        <f t="shared" si="4"/>
         <v>7.2727272727272724E-2</v>
       </c>
       <c r="M15" s="140">
-        <f>I15/F15</f>
+        <f t="shared" si="5"/>
         <v>0.92727272727272725</v>
       </c>
       <c r="N15" s="140">
-        <f>G15/$G$22</f>
+        <f t="shared" si="6"/>
         <v>0.19047619047619047</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C16" s="18" t="s">
         <v>1</v>
       </c>
@@ -33004,7 +33052,7 @@
         <v>49</v>
       </c>
       <c r="F16" s="34">
-        <f>SUM(D16:E16)</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="G16" s="19">
@@ -33016,31 +33064,31 @@
         <v>4</v>
       </c>
       <c r="I16" s="34">
-        <f>F16-G16</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="J16" s="34">
-        <f>F16-E16-G16</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="K16" s="140">
-        <f>D16/F16</f>
+        <f t="shared" si="3"/>
         <v>0.10909090909090909</v>
       </c>
       <c r="L16" s="140">
-        <f>G16/F16</f>
+        <f t="shared" si="4"/>
         <v>3.6363636363636362E-2</v>
       </c>
       <c r="M16" s="140">
-        <f>I16/F16</f>
+        <f t="shared" si="5"/>
         <v>0.96363636363636362</v>
       </c>
       <c r="N16" s="140">
-        <f>G16/$G$22</f>
+        <f t="shared" si="6"/>
         <v>9.5238095238095233E-2</v>
       </c>
     </row>
-    <row r="17" spans="3:14">
+    <row r="17" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C17" s="18" t="s">
         <v>322</v>
       </c>
@@ -33053,7 +33101,7 @@
         <v>54</v>
       </c>
       <c r="F17" s="34">
-        <f>SUM(D17:E17)</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="G17" s="19">
@@ -33065,31 +33113,31 @@
         <v>0</v>
       </c>
       <c r="I17" s="34">
-        <f>F17-G17</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="J17" s="34">
-        <f>F17-E17-G17</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K17" s="140">
-        <f>D17/F17</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L17" s="140">
-        <f>G17/F17</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M17" s="140">
-        <f>I17/F17</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N17" s="140">
-        <f>G17/$G$22</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:14">
+    <row r="18" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C18" s="18" t="s">
         <v>2</v>
       </c>
@@ -33102,7 +33150,7 @@
         <v>55</v>
       </c>
       <c r="F18" s="34">
-        <f>SUM(D18:E18)</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="G18" s="19">
@@ -33114,31 +33162,31 @@
         <v>0</v>
       </c>
       <c r="I18" s="34">
-        <f>F18-G18</f>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="J18" s="34">
-        <f>F18-E18-G18</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K18" s="140">
-        <f>D18/F18</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L18" s="140">
-        <f>G18/F18</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M18" s="140">
-        <f>I18/F18</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N18" s="140">
-        <f>G18/$G$22</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:14">
+    <row r="19" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C19" s="18" t="s">
         <v>323</v>
       </c>
@@ -33151,7 +33199,7 @@
         <v>54</v>
       </c>
       <c r="F19" s="34">
-        <f>SUM(D19:E19)</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="G19" s="19">
@@ -33163,31 +33211,31 @@
         <v>0</v>
       </c>
       <c r="I19" s="34">
-        <f>F19-G19</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="J19" s="34">
-        <f>F19-E19-G19</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K19" s="140">
-        <f>D19/F19</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L19" s="140">
-        <f>G19/F19</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M19" s="140">
-        <f>I19/F19</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N19" s="140">
-        <f>G19/$G$22</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:14">
+    <row r="20" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C20" s="18" t="s">
         <v>324</v>
       </c>
@@ -33200,7 +33248,7 @@
         <v>55</v>
       </c>
       <c r="F20" s="34">
-        <f>SUM(D20:E20)</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="G20" s="19">
@@ -33212,34 +33260,34 @@
         <v>0</v>
       </c>
       <c r="I20" s="34">
-        <f>F20-G20</f>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="J20" s="34">
-        <f>F20-E20-G20</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K20" s="140">
-        <f>D20/F20</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L20" s="140">
-        <f>G20/F20</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M20" s="140">
-        <f>I20/F20</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N20" s="140">
-        <f>G20/$G$22</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:14">
+    <row r="21" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C21" s="17"/>
     </row>
-    <row r="22" spans="3:14">
+    <row r="22" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C22" s="74" t="s">
         <v>325</v>
       </c>
@@ -33248,23 +33296,23 @@
         <v>29</v>
       </c>
       <c r="E22" s="75">
-        <f t="shared" ref="E22:I22" si="0">SUM(E14:E20)</f>
+        <f t="shared" ref="E22:I22" si="7">SUM(E14:E20)</f>
         <v>354</v>
       </c>
       <c r="F22" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>383</v>
       </c>
       <c r="G22" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="H22" s="75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I22" s="76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>362</v>
       </c>
       <c r="J22" s="17"/>
@@ -33272,13 +33320,13 @@
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
     </row>
-    <row r="23" spans="3:14"/>
-    <row r="24" spans="3:14" ht="18.75">
+    <row r="23" spans="3:14" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="3:14" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C24" s="64" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="25" spans="3:14">
+    <row r="25" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C25" s="84" t="s">
         <v>310</v>
       </c>
@@ -33298,7 +33346,7 @@
       <c r="L25" s="29"/>
       <c r="M25" s="29"/>
     </row>
-    <row r="26" spans="3:14">
+    <row r="26" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C26" s="87" t="s">
         <v>1</v>
       </c>
@@ -33311,12 +33359,12 @@
         <v>0.65</v>
       </c>
       <c r="F26" s="88">
-        <f>IFERROR((D26-E26)/D26,0)</f>
+        <f t="shared" ref="F26:F33" si="8">IFERROR((D26-E26)/D26,0)</f>
         <v>0.35</v>
       </c>
       <c r="H26" s="92"/>
     </row>
-    <row r="27" spans="3:14">
+    <row r="27" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C27" s="87" t="s">
         <v>2</v>
       </c>
@@ -33329,12 +33377,12 @@
         <v>0</v>
       </c>
       <c r="F27" s="88">
-        <f>IFERROR((D27-E27)/D27,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H27" s="92"/>
     </row>
-    <row r="28" spans="3:14">
+    <row r="28" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C28" s="87" t="s">
         <v>3</v>
       </c>
@@ -33347,12 +33395,12 @@
         <v>33</v>
       </c>
       <c r="F28" s="88">
-        <f>IFERROR((D28-E28)/D28,0)</f>
+        <f t="shared" si="8"/>
         <v>0.37735849056603776</v>
       </c>
       <c r="H28" s="92"/>
     </row>
-    <row r="29" spans="3:14">
+    <row r="29" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C29" s="87" t="s">
         <v>321</v>
       </c>
@@ -33365,12 +33413,12 @@
         <v>59.629999999999995</v>
       </c>
       <c r="F29" s="88">
-        <f>IFERROR((D29-E29)/D29,0)</f>
+        <f t="shared" si="8"/>
         <v>0.23058064516129037</v>
       </c>
       <c r="H29" s="92"/>
     </row>
-    <row r="30" spans="3:14">
+    <row r="30" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C30" s="87" t="s">
         <v>324</v>
       </c>
@@ -33383,12 +33431,12 @@
         <v>0</v>
       </c>
       <c r="F30" s="88">
-        <f>IFERROR((D30-E30)/D30,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H30" s="92"/>
     </row>
-    <row r="31" spans="3:14">
+    <row r="31" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C31" s="87" t="s">
         <v>322</v>
       </c>
@@ -33401,12 +33449,12 @@
         <v>0</v>
       </c>
       <c r="F31" s="88">
-        <f>IFERROR((D31-E31)/D31,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H31" s="92"/>
     </row>
-    <row r="32" spans="3:14">
+    <row r="32" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C32" s="89" t="s">
         <v>323</v>
       </c>
@@ -33419,12 +33467,12 @@
         <v>0</v>
       </c>
       <c r="F32" s="90">
-        <f ca="1">IFERROR((D32-E32)/D32,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="H32" s="92"/>
     </row>
-    <row r="33" spans="2:13">
+    <row r="33" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C33" s="74" t="s">
         <v>330</v>
       </c>
@@ -33433,11 +33481,11 @@
         <v>131.5</v>
       </c>
       <c r="E33" s="75">
-        <f t="shared" ref="E33" ca="1" si="1">SUM(E26:E32)</f>
+        <f t="shared" ref="E33" ca="1" si="9">SUM(E26:E32)</f>
         <v>93.28</v>
       </c>
       <c r="F33" s="77">
-        <f ca="1">IFERROR((D33-E33)/D33,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0.29064638783269964</v>
       </c>
       <c r="H33" s="92"/>
@@ -33447,127 +33495,127 @@
       <c r="L33" s="17"/>
       <c r="M33" s="17"/>
     </row>
-    <row r="34" spans="2:13"/>
-    <row r="35" spans="2:13"/>
-    <row r="36" spans="2:13"/>
-    <row r="37" spans="2:13" ht="23.25">
+    <row r="34" spans="2:13" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="2:13" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="2:13" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="65" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="38" spans="2:13" ht="23.25">
+    <row r="38" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="65"/>
     </row>
-    <row r="39" spans="2:13" ht="23.25">
+    <row r="39" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="65"/>
     </row>
-    <row r="40" spans="2:13" ht="23.25">
+    <row r="40" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="65"/>
     </row>
-    <row r="41" spans="2:13" ht="23.25">
+    <row r="41" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="65"/>
     </row>
-    <row r="42" spans="2:13" ht="23.25">
+    <row r="42" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="65"/>
     </row>
-    <row r="43" spans="2:13" ht="23.25">
+    <row r="43" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="65"/>
     </row>
-    <row r="44" spans="2:13" ht="23.25">
+    <row r="44" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="65"/>
     </row>
-    <row r="45" spans="2:13" ht="23.25">
+    <row r="45" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="65"/>
     </row>
-    <row r="46" spans="2:13" ht="23.25">
+    <row r="46" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="65"/>
     </row>
-    <row r="47" spans="2:13" ht="23.25">
+    <row r="47" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="65"/>
     </row>
-    <row r="48" spans="2:13"/>
-    <row r="49" spans="3:66" ht="14.45" customHeight="1">
-      <c r="D49" s="218" t="s">
+    <row r="48" spans="2:13" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="49" spans="3:66" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D49" s="219" t="s">
         <v>332</v>
       </c>
-      <c r="E49" s="219"/>
-      <c r="F49" s="219"/>
-      <c r="G49" s="219"/>
-      <c r="H49" s="219"/>
-      <c r="I49" s="219"/>
-      <c r="J49" s="220"/>
-      <c r="K49" s="221" t="s">
+      <c r="E49" s="220"/>
+      <c r="F49" s="220"/>
+      <c r="G49" s="220"/>
+      <c r="H49" s="220"/>
+      <c r="I49" s="220"/>
+      <c r="J49" s="221"/>
+      <c r="K49" s="222" t="s">
         <v>333</v>
       </c>
-      <c r="L49" s="222"/>
-      <c r="M49" s="222"/>
-      <c r="N49" s="222"/>
-      <c r="O49" s="222"/>
-      <c r="P49" s="222"/>
-      <c r="Q49" s="222"/>
-      <c r="R49" s="223"/>
-      <c r="S49" s="224" t="s">
+      <c r="L49" s="223"/>
+      <c r="M49" s="223"/>
+      <c r="N49" s="223"/>
+      <c r="O49" s="223"/>
+      <c r="P49" s="223"/>
+      <c r="Q49" s="223"/>
+      <c r="R49" s="224"/>
+      <c r="S49" s="225" t="s">
         <v>334</v>
       </c>
-      <c r="T49" s="225"/>
-      <c r="U49" s="225"/>
-      <c r="V49" s="225"/>
-      <c r="W49" s="225"/>
-      <c r="X49" s="225"/>
-      <c r="Y49" s="225"/>
-      <c r="Z49" s="226"/>
-      <c r="AA49" s="227" t="s">
+      <c r="T49" s="226"/>
+      <c r="U49" s="226"/>
+      <c r="V49" s="226"/>
+      <c r="W49" s="226"/>
+      <c r="X49" s="226"/>
+      <c r="Y49" s="226"/>
+      <c r="Z49" s="227"/>
+      <c r="AA49" s="228" t="s">
         <v>335</v>
       </c>
-      <c r="AB49" s="228"/>
-      <c r="AC49" s="228"/>
-      <c r="AD49" s="228"/>
-      <c r="AE49" s="228"/>
-      <c r="AF49" s="228"/>
-      <c r="AG49" s="228"/>
-      <c r="AH49" s="229"/>
-      <c r="AI49" s="230" t="s">
+      <c r="AB49" s="229"/>
+      <c r="AC49" s="229"/>
+      <c r="AD49" s="229"/>
+      <c r="AE49" s="229"/>
+      <c r="AF49" s="229"/>
+      <c r="AG49" s="229"/>
+      <c r="AH49" s="230"/>
+      <c r="AI49" s="231" t="s">
         <v>336</v>
       </c>
-      <c r="AJ49" s="231"/>
-      <c r="AK49" s="231"/>
-      <c r="AL49" s="231"/>
-      <c r="AM49" s="231"/>
-      <c r="AN49" s="231"/>
-      <c r="AO49" s="231"/>
-      <c r="AP49" s="232"/>
-      <c r="AQ49" s="209" t="s">
+      <c r="AJ49" s="232"/>
+      <c r="AK49" s="232"/>
+      <c r="AL49" s="232"/>
+      <c r="AM49" s="232"/>
+      <c r="AN49" s="232"/>
+      <c r="AO49" s="232"/>
+      <c r="AP49" s="233"/>
+      <c r="AQ49" s="210" t="s">
         <v>337</v>
       </c>
-      <c r="AR49" s="210"/>
-      <c r="AS49" s="210"/>
-      <c r="AT49" s="210"/>
-      <c r="AU49" s="210"/>
-      <c r="AV49" s="210"/>
-      <c r="AW49" s="210"/>
-      <c r="AX49" s="211"/>
-      <c r="AY49" s="212" t="s">
+      <c r="AR49" s="211"/>
+      <c r="AS49" s="211"/>
+      <c r="AT49" s="211"/>
+      <c r="AU49" s="211"/>
+      <c r="AV49" s="211"/>
+      <c r="AW49" s="211"/>
+      <c r="AX49" s="212"/>
+      <c r="AY49" s="213" t="s">
         <v>338</v>
       </c>
-      <c r="AZ49" s="213"/>
-      <c r="BA49" s="213"/>
-      <c r="BB49" s="213"/>
-      <c r="BC49" s="213"/>
-      <c r="BD49" s="213"/>
-      <c r="BE49" s="213"/>
-      <c r="BF49" s="214"/>
-      <c r="BG49" s="215" t="s">
+      <c r="AZ49" s="214"/>
+      <c r="BA49" s="214"/>
+      <c r="BB49" s="214"/>
+      <c r="BC49" s="214"/>
+      <c r="BD49" s="214"/>
+      <c r="BE49" s="214"/>
+      <c r="BF49" s="215"/>
+      <c r="BG49" s="216" t="s">
         <v>339</v>
       </c>
-      <c r="BH49" s="216"/>
-      <c r="BI49" s="216"/>
-      <c r="BJ49" s="216"/>
-      <c r="BK49" s="216"/>
-      <c r="BL49" s="216"/>
-      <c r="BM49" s="216"/>
-      <c r="BN49" s="217"/>
+      <c r="BH49" s="217"/>
+      <c r="BI49" s="217"/>
+      <c r="BJ49" s="217"/>
+      <c r="BK49" s="217"/>
+      <c r="BL49" s="217"/>
+      <c r="BM49" s="217"/>
+      <c r="BN49" s="218"/>
     </row>
-    <row r="50" spans="3:66">
+    <row r="50" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C50" s="20" t="s">
         <v>9</v>
       </c>
@@ -33761,7 +33809,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="51" spans="3:66">
+    <row r="51" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C51" s="18" t="str" cm="1">
         <f t="array" ref="C51:C58">_xlfn.UNIQUE(AdopcionIA!$C$6:$C$507)</f>
         <v>SP40</v>
@@ -33775,7 +33823,7 @@
         <v>9.1000000000000014</v>
       </c>
       <c r="F51" s="56">
-        <f>IFERROR((D51-E51)/D51,0)</f>
+        <f t="shared" ref="F51:F57" si="10">IFERROR((D51-E51)/D51,0)</f>
         <v>0.17272727272727259</v>
       </c>
       <c r="G51" s="43">
@@ -33803,7 +33851,7 @@
         <v>0.4</v>
       </c>
       <c r="M51" s="56">
-        <f>IFERROR((K51-L51)/K51,0)</f>
+        <f t="shared" ref="M51:M57" si="11">IFERROR((K51-L51)/K51,0)</f>
         <v>0.19999999999999996</v>
       </c>
       <c r="N51" s="21">
@@ -33835,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="U51" s="57">
-        <f t="shared" ref="U51:U57" si="2">IFERROR((S51-T51)/S51,0)</f>
+        <f t="shared" ref="U51:U57" si="12">IFERROR((S51-T51)/S51,0)</f>
         <v>0</v>
       </c>
       <c r="V51" s="46">
@@ -34019,7 +34067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:66">
+    <row r="52" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C52" s="18" t="str">
         <v>SP41</v>
       </c>
@@ -34032,7 +34080,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="F52" s="56">
-        <f>IFERROR((D52-E52)/D52,0)</f>
+        <f t="shared" si="10"/>
         <v>0.2454545454545454</v>
       </c>
       <c r="G52" s="43">
@@ -34060,7 +34108,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="56">
-        <f>IFERROR((K52-L52)/K52,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N52" s="21">
@@ -34092,7 +34140,7 @@
         <v>0</v>
       </c>
       <c r="U52" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V52" s="46">
@@ -34124,7 +34172,7 @@
         <v>8</v>
       </c>
       <c r="AC52" s="56">
-        <f t="shared" ref="AC52:AC55" si="3">IFERROR((AA52-AB52)/AA52,0)</f>
+        <f t="shared" ref="AC52:AC55" si="13">IFERROR((AA52-AB52)/AA52,0)</f>
         <v>0.2</v>
       </c>
       <c r="AD52" s="51">
@@ -34156,7 +34204,7 @@
         <v>0.3</v>
       </c>
       <c r="AK52" s="56">
-        <f t="shared" ref="AK52:AK55" si="4">IFERROR((AI52-AJ52)/AI52,0)</f>
+        <f t="shared" ref="AK52:AK55" si="14">IFERROR((AI52-AJ52)/AI52,0)</f>
         <v>0.7</v>
       </c>
       <c r="AL52" s="55">
@@ -34188,7 +34236,7 @@
         <v>0</v>
       </c>
       <c r="AS52" s="56">
-        <f t="shared" ref="AS52:AS55" si="5">IFERROR((AQ52-AR52)/AQ52,0)</f>
+        <f t="shared" ref="AS52:AS55" si="15">IFERROR((AQ52-AR52)/AQ52,0)</f>
         <v>0</v>
       </c>
       <c r="AT52" s="63">
@@ -34220,7 +34268,7 @@
         <v>0</v>
       </c>
       <c r="BA52" s="56">
-        <f t="shared" ref="BA52:BA55" si="6">IFERROR((AY52-AZ52)/AY52,0)</f>
+        <f t="shared" ref="BA52:BA55" si="16">IFERROR((AY52-AZ52)/AY52,0)</f>
         <v>0</v>
       </c>
       <c r="BB52" s="69">
@@ -34252,7 +34300,7 @@
         <v>0</v>
       </c>
       <c r="BI52" s="56">
-        <f t="shared" ref="BI52:BI55" si="7">IFERROR((BG52-BH52)/BG52,0)</f>
+        <f t="shared" ref="BI52:BI55" si="17">IFERROR((BG52-BH52)/BG52,0)</f>
         <v>0</v>
       </c>
       <c r="BJ52" s="73">
@@ -34276,7 +34324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:66">
+    <row r="53" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C53" s="18" t="str">
         <v>SP42</v>
       </c>
@@ -34289,7 +34337,7 @@
         <v>39.25</v>
       </c>
       <c r="F53" s="56">
-        <f>IFERROR((D53-E53)/D53,0)</f>
+        <f t="shared" si="10"/>
         <v>0.22277227722772278</v>
       </c>
       <c r="G53" s="43">
@@ -34317,7 +34365,7 @@
         <v>0.25</v>
       </c>
       <c r="M53" s="56">
-        <f>IFERROR((K53-L53)/K53,0)</f>
+        <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
       <c r="N53" s="21">
@@ -34349,7 +34397,7 @@
         <v>0</v>
       </c>
       <c r="U53" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V53" s="46">
@@ -34381,7 +34429,7 @@
         <v>0</v>
       </c>
       <c r="AC53" s="56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD53" s="51">
@@ -34413,7 +34461,7 @@
         <v>39</v>
       </c>
       <c r="AK53" s="56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0.22</v>
       </c>
       <c r="AL53" s="55">
@@ -34445,7 +34493,7 @@
         <v>0</v>
       </c>
       <c r="AS53" s="56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AT53" s="63">
@@ -34477,7 +34525,7 @@
         <v>0</v>
       </c>
       <c r="BA53" s="56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BB53" s="69">
@@ -34509,7 +34557,7 @@
         <v>0</v>
       </c>
       <c r="BI53" s="56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BJ53" s="73">
@@ -34533,7 +34581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:66">
+    <row r="54" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C54" s="18" t="str">
         <v>SP43</v>
       </c>
@@ -34546,7 +34594,7 @@
         <v>11.629999999999999</v>
       </c>
       <c r="F54" s="56">
-        <f>IFERROR((D54-E54)/D54,0)</f>
+        <f t="shared" si="10"/>
         <v>0.27312500000000006</v>
       </c>
       <c r="G54" s="43">
@@ -34574,7 +34622,7 @@
         <v>0</v>
       </c>
       <c r="M54" s="56">
-        <f>IFERROR((K54-L54)/K54,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N54" s="21">
@@ -34606,7 +34654,7 @@
         <v>0</v>
       </c>
       <c r="U54" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V54" s="46">
@@ -34638,7 +34686,7 @@
         <v>0</v>
       </c>
       <c r="AC54" s="56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD54" s="51">
@@ -34670,7 +34718,7 @@
         <v>11.629999999999999</v>
       </c>
       <c r="AK54" s="56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0.27312500000000006</v>
       </c>
       <c r="AL54" s="55">
@@ -34702,7 +34750,7 @@
         <v>0</v>
       </c>
       <c r="AS54" s="56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AT54" s="63">
@@ -34734,7 +34782,7 @@
         <v>0</v>
       </c>
       <c r="BA54" s="56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BB54" s="69">
@@ -34766,7 +34814,7 @@
         <v>0</v>
       </c>
       <c r="BI54" s="56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BJ54" s="73">
@@ -34790,7 +34838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:66">
+    <row r="55" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C55" s="18" t="str">
         <v>SP44</v>
       </c>
@@ -34803,7 +34851,7 @@
         <v>25</v>
       </c>
       <c r="F55" s="56">
-        <f>IFERROR((D55-E55)/D55,0)</f>
+        <f t="shared" si="10"/>
         <v>0.41860465116279072</v>
       </c>
       <c r="G55" s="43">
@@ -34831,7 +34879,7 @@
         <v>0</v>
       </c>
       <c r="M55" s="59">
-        <f>IFERROR((K55-L55)/K55,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N55" s="21">
@@ -34863,7 +34911,7 @@
         <v>0</v>
       </c>
       <c r="U55" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V55" s="46">
@@ -34895,7 +34943,7 @@
         <v>25</v>
       </c>
       <c r="AC55" s="56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0.41860465116279072</v>
       </c>
       <c r="AD55" s="51">
@@ -34927,7 +34975,7 @@
         <v>0</v>
       </c>
       <c r="AK55" s="56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AL55" s="55">
@@ -34959,7 +35007,7 @@
         <v>0</v>
       </c>
       <c r="AS55" s="56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AT55" s="63">
@@ -34991,7 +35039,7 @@
         <v>0</v>
       </c>
       <c r="BA55" s="56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BB55" s="69">
@@ -35023,7 +35071,7 @@
         <v>0</v>
       </c>
       <c r="BI55" s="56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BJ55" s="73">
@@ -35047,7 +35095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="3:66">
+    <row r="56" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C56" s="18" t="str">
         <v>SP45</v>
       </c>
@@ -35060,7 +35108,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="56">
-        <f>IFERROR((D56-E56)/D56,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G56" s="43">
@@ -35088,7 +35136,7 @@
         <v>0</v>
       </c>
       <c r="M56" s="59">
-        <f>IFERROR((K56-L56)/K56,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N56" s="21">
@@ -35120,7 +35168,7 @@
         <v>0</v>
       </c>
       <c r="U56" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V56" s="46">
@@ -35152,7 +35200,7 @@
         <v>0</v>
       </c>
       <c r="AC56" s="56">
-        <f t="shared" ref="AC56:AC57" si="8">IFERROR((AA56-AB56)/AA56,0)</f>
+        <f t="shared" ref="AC56:AC57" si="18">IFERROR((AA56-AB56)/AA56,0)</f>
         <v>0</v>
       </c>
       <c r="AD56" s="51">
@@ -35184,7 +35232,7 @@
         <v>0</v>
       </c>
       <c r="AK56" s="56">
-        <f t="shared" ref="AK56:AK57" si="9">IFERROR((AI56-AJ56)/AI56,0)</f>
+        <f t="shared" ref="AK56:AK57" si="19">IFERROR((AI56-AJ56)/AI56,0)</f>
         <v>0</v>
       </c>
       <c r="AL56" s="55">
@@ -35216,7 +35264,7 @@
         <v>0</v>
       </c>
       <c r="AS56" s="56">
-        <f t="shared" ref="AS56:AS57" si="10">IFERROR((AQ56-AR56)/AQ56,0)</f>
+        <f t="shared" ref="AS56:AS57" si="20">IFERROR((AQ56-AR56)/AQ56,0)</f>
         <v>0</v>
       </c>
       <c r="AT56" s="63">
@@ -35248,7 +35296,7 @@
         <v>0</v>
       </c>
       <c r="BA56" s="56">
-        <f t="shared" ref="BA56:BA57" si="11">IFERROR((AY56-AZ56)/AY56,0)</f>
+        <f t="shared" ref="BA56:BA57" si="21">IFERROR((AY56-AZ56)/AY56,0)</f>
         <v>0</v>
       </c>
       <c r="BB56" s="69">
@@ -35280,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="BI56" s="56">
-        <f t="shared" ref="BI56:BI57" si="12">IFERROR((BG56-BH56)/BG56,0)</f>
+        <f t="shared" ref="BI56:BI57" si="22">IFERROR((BG56-BH56)/BG56,0)</f>
         <v>0</v>
       </c>
       <c r="BJ56" s="73">
@@ -35304,7 +35352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:66" ht="15" customHeight="1">
+    <row r="57" spans="3:66" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C57" s="18" t="str">
         <v>SP46</v>
       </c>
@@ -35317,7 +35365,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="56">
-        <f>IFERROR((D57-E57)/D57,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G57" s="43">
@@ -35345,7 +35393,7 @@
         <v>0</v>
       </c>
       <c r="M57" s="56">
-        <f>IFERROR((K57-L57)/K57,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N57" s="21">
@@ -35377,7 +35425,7 @@
         <v>0</v>
       </c>
       <c r="U57" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V57" s="46">
@@ -35409,7 +35457,7 @@
         <v>0</v>
       </c>
       <c r="AC57" s="56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD57" s="51">
@@ -35441,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="AK57" s="56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AL57" s="55">
@@ -35473,7 +35521,7 @@
         <v>0</v>
       </c>
       <c r="AS57" s="56">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AT57" s="63">
@@ -35505,7 +35553,7 @@
         <v>0</v>
       </c>
       <c r="BA57" s="56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BB57" s="69">
@@ -35537,7 +35585,7 @@
         <v>0</v>
       </c>
       <c r="BI57" s="56">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BJ57" s="73">
@@ -35561,15 +35609,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:66" ht="15" customHeight="1">
+    <row r="58" spans="3:66" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:66">
+    <row r="59" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C59" s="17"/>
     </row>
-    <row r="60" spans="3:66">
+    <row r="60" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C60" s="29"/>
       <c r="D60" s="29"/>
       <c r="E60" s="29"/>
@@ -35582,36 +35630,36 @@
       <c r="L60" s="29"/>
       <c r="M60" s="29"/>
     </row>
-    <row r="61" spans="3:66">
+    <row r="61" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C61" s="17"/>
       <c r="G61" s="35"/>
       <c r="H61" s="35"/>
     </row>
-    <row r="62" spans="3:66">
+    <row r="62" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C62" s="17"/>
       <c r="G62" s="35"/>
       <c r="H62" s="35"/>
     </row>
-    <row r="63" spans="3:66">
+    <row r="63" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C63" s="17"/>
       <c r="G63" s="35"/>
       <c r="H63" s="35"/>
     </row>
-    <row r="64" spans="3:66">
+    <row r="64" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C64" s="17"/>
       <c r="G64" s="35"/>
       <c r="H64" s="35"/>
     </row>
-    <row r="65" spans="3:13">
+    <row r="65" spans="3:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C65" s="17"/>
     </row>
-    <row r="66" spans="3:13">
+    <row r="66" spans="3:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C66" s="17"/>
     </row>
-    <row r="68" spans="3:13">
+    <row r="68" spans="3:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C68" s="17"/>
     </row>
-    <row r="69" spans="3:13">
+    <row r="69" spans="3:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C69" s="29"/>
       <c r="D69" s="29"/>
       <c r="E69" s="29"/>
@@ -35624,39 +35672,39 @@
       <c r="L69" s="29"/>
       <c r="M69" s="29"/>
     </row>
-    <row r="70" spans="3:13">
+    <row r="70" spans="3:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C70" s="17"/>
       <c r="G70" s="35"/>
       <c r="H70" s="35"/>
     </row>
-    <row r="71" spans="3:13">
+    <row r="71" spans="3:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C71" s="17"/>
       <c r="G71" s="35"/>
       <c r="H71" s="35"/>
     </row>
-    <row r="72" spans="3:13">
+    <row r="72" spans="3:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C72" s="17"/>
       <c r="G72" s="35"/>
       <c r="H72" s="35"/>
     </row>
-    <row r="73" spans="3:13">
+    <row r="73" spans="3:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C73" s="17"/>
       <c r="G73" s="35"/>
       <c r="H73" s="35"/>
     </row>
-    <row r="74" spans="3:13">
+    <row r="74" spans="3:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C74" s="17"/>
       <c r="G74" s="35"/>
       <c r="H74" s="35"/>
     </row>
-    <row r="75" spans="3:13">
+    <row r="75" spans="3:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C75" s="17"/>
     </row>
-    <row r="77" spans="3:13"/>
-    <row r="78" spans="3:13"/>
-    <row r="79" spans="3:13"/>
-    <row r="80" spans="3:13"/>
-    <row r="81"/>
+    <row r="77" spans="3:13" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="78" spans="3:13" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="79" spans="3:13" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="80" spans="3:13" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="81" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C14:N20">
     <sortCondition descending="1" ref="G14:G20"/>
@@ -36042,13 +36090,13 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="27.1796875" customWidth="1"/>
     <col min="3" max="3" width="150" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B2" s="17" t="s">
         <v>346</v>
       </c>
@@ -36056,7 +36104,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" s="175" t="s">
         <v>348</v>
       </c>
@@ -36064,15 +36112,15 @@
         <v>349</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="198">
-      <c r="B5" s="233">
+    <row r="5" spans="2:3" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="201">
         <v>45629</v>
       </c>
       <c r="C5" s="200" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="290.25">
+    <row r="6" spans="2:3" ht="275.5" x14ac:dyDescent="0.35">
       <c r="B6" s="177">
         <v>45609</v>
       </c>
@@ -36080,7 +36128,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="229.5">
+    <row r="7" spans="2:3" ht="217.5" x14ac:dyDescent="0.35">
       <c r="B7" s="177">
         <v>45600</v>
       </c>
@@ -36088,7 +36136,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="275.25">
+    <row r="8" spans="2:3" ht="261" x14ac:dyDescent="0.35">
       <c r="B8" s="179">
         <v>45587</v>
       </c>
@@ -36096,7 +36144,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="213">
+    <row r="9" spans="2:3" ht="203" x14ac:dyDescent="0.35">
       <c r="B9" s="181">
         <v>45574</v>
       </c>
@@ -36104,7 +36152,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="336">
+    <row r="10" spans="2:3" ht="319" x14ac:dyDescent="0.35">
       <c r="B10" s="183">
         <v>45566</v>
       </c>
@@ -36112,7 +36160,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="366">
+    <row r="11" spans="2:3" ht="333.5" x14ac:dyDescent="0.35">
       <c r="B11" s="185">
         <v>45534</v>
       </c>
@@ -36136,79 +36184,79 @@
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="4" spans="3:3">
+    <row r="4" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C4" s="197" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="5" spans="3:3">
+    <row r="5" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="6" spans="3:3">
+    <row r="6" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="7" spans="3:3">
+    <row r="7" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="8" spans="3:3">
+    <row r="8" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="10" spans="3:3">
+    <row r="10" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C10" s="197" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="11" spans="3:3">
+    <row r="11" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="12" spans="3:3">
+    <row r="12" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="13" spans="3:3">
+    <row r="13" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="14" spans="3:3">
+    <row r="14" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="15" spans="3:3">
+    <row r="15" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="16" spans="3:3">
+    <row r="16" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C18" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="19" spans="3:3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
         <v>371</v>
       </c>
@@ -36219,29 +36267,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c3e1b4bb-9124-477c-aa49-683b9a26b58f">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E080B9D539EE5249B0F7896E1534F47F" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="1a88378f58b9ad7590fd740332c19a90">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8c298b4c-1b69-4120-abb9-a44ffc4bda23" xmlns:ns3="c3e1b4bb-9124-477c-aa49-683b9a26b58f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="910b3ddf48a2c6cdf16d80fb4d738ee7" ns2:_="" ns3:_="">
     <xsd:import namespace="8c298b4c-1b69-4120-abb9-a44ffc4bda23"/>
@@ -36442,14 +36467,62 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c3e1b4bb-9124-477c-aa49-683b9a26b58f">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39A31710-26E2-46B2-AADC-9E8F69C57821}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8c298b4c-1b69-4120-abb9-a44ffc4bda23"/>
+    <ds:schemaRef ds:uri="c3e1b4bb-9124-477c-aa49-683b9a26b58f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2FEBBB-B4B0-4147-BA7E-181AD49E4B6A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2FEBBB-B4B0-4147-BA7E-181AD49E4B6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c3e1b4bb-9124-477c-aa49-683b9a26b58f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39A31710-26E2-46B2-AADC-9E8F69C57821}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>